--- a/data/misused_bar_graph_figures/nat_neurosci/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_neurosci/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_neurosci/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA9E812C-003F-BB49-9228-0E78BB2A495A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42C7562-527B-2547-A173-56831998E21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="397" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="92">
   <si>
     <t>DOI</t>
   </si>
@@ -236,6 +236,66 @@
   </si>
   <si>
     <t>LTP fold change (AU)</t>
+  </si>
+  <si>
+    <t>%6E10+ area</t>
+  </si>
+  <si>
+    <t>% thioflavin-S/ApoE colocalization</t>
+  </si>
+  <si>
+    <t>Sphericity</t>
+  </si>
+  <si>
+    <t>Normalized counts</t>
+  </si>
+  <si>
+    <t>Body weight (g)</t>
+  </si>
+  <si>
+    <t>Rhod-2 fluorescence (F/F0)</t>
+  </si>
+  <si>
+    <t>Peak classification accuract</t>
+  </si>
+  <si>
+    <t>Fraction correct</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Spine size</t>
+  </si>
+  <si>
+    <t>VGAT density</t>
+  </si>
+  <si>
+    <t>C104T editing rate (%)</t>
+  </si>
+  <si>
+    <t>Hippocampus percentage (Metf2c+ NeuN+ cells/NeuN+ cells)</t>
+  </si>
+  <si>
+    <t>Hippocampus percentage (SpCas9+ NeuN+ cells/NeuN+ cells)</t>
+  </si>
+  <si>
+    <t>Cumulative duration in closed arm (s)</t>
+  </si>
+  <si>
+    <t>Mean velocity (cm/s)</t>
+  </si>
+  <si>
+    <t>Distance moved (cm)</t>
+  </si>
+  <si>
+    <t>Amplitude (pA)</t>
+  </si>
+  <si>
+    <t>Average fluorescence intensity</t>
+  </si>
+  <si>
+    <t>Cumulative duration in light area (s)</t>
   </si>
 </sst>
 </file>
@@ -308,7 +368,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -615,8 +675,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="213" workbookViewId="0">
-      <selection activeCell="E54" sqref="E54"/>
+    <sheetView tabSelected="1" zoomScale="213" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1535,6 +1595,9 @@
       <c r="D54" t="s">
         <v>7</v>
       </c>
+      <c r="E54" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
@@ -1549,6 +1612,9 @@
       <c r="D55" t="s">
         <v>7</v>
       </c>
+      <c r="E55" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
@@ -1563,6 +1629,9 @@
       <c r="D56" t="s">
         <v>7</v>
       </c>
+      <c r="E56" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
@@ -1577,6 +1646,9 @@
       <c r="D57" t="s">
         <v>7</v>
       </c>
+      <c r="E57" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
@@ -1591,6 +1663,9 @@
       <c r="D58" t="s">
         <v>7</v>
       </c>
+      <c r="E58" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
@@ -1605,6 +1680,9 @@
       <c r="D59" t="s">
         <v>7</v>
       </c>
+      <c r="E59" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
@@ -1619,6 +1697,9 @@
       <c r="D60" t="s">
         <v>7</v>
       </c>
+      <c r="E60" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
@@ -1633,6 +1714,9 @@
       <c r="D61" t="s">
         <v>7</v>
       </c>
+      <c r="E61" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
@@ -1647,6 +1731,9 @@
       <c r="D62" t="s">
         <v>7</v>
       </c>
+      <c r="E62" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
@@ -1661,6 +1748,9 @@
       <c r="D63" t="s">
         <v>7</v>
       </c>
+      <c r="E63" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
@@ -1675,8 +1765,11 @@
       <c r="D64" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E64" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -1689,8 +1782,11 @@
       <c r="D65" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -1703,8 +1799,11 @@
       <c r="D66" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E66" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -1717,8 +1816,11 @@
       <c r="D67" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E67" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -1731,8 +1833,11 @@
       <c r="D68" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E68" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -1745,8 +1850,11 @@
       <c r="D69" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -1759,8 +1867,11 @@
       <c r="D70" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -1773,8 +1884,11 @@
       <c r="D71" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E71" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>50</v>
       </c>
@@ -1787,8 +1901,11 @@
       <c r="D72" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E72" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -1801,8 +1918,11 @@
       <c r="D73" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E73" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -1815,8 +1935,11 @@
       <c r="D74" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E74" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -1829,8 +1952,11 @@
       <c r="D75" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -1843,8 +1969,11 @@
       <c r="D76" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -1857,8 +1986,11 @@
       <c r="D77" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E77" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -1871,8 +2003,11 @@
       <c r="D78" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E78" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -1885,8 +2020,11 @@
       <c r="D79" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E79" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -1899,8 +2037,11 @@
       <c r="D80" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E80" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>51</v>
       </c>
@@ -1913,8 +2054,11 @@
       <c r="D81" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E81" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -1927,8 +2071,11 @@
       <c r="D82" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E82" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>51</v>
       </c>
@@ -1941,8 +2088,11 @@
       <c r="D83" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E83" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -1955,8 +2105,11 @@
       <c r="D84" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E84" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -1969,8 +2122,11 @@
       <c r="D85" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E85" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -1982,6 +2138,9 @@
       </c>
       <c r="D86" t="s">
         <v>7</v>
+      </c>
+      <c r="E86" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_neurosci/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_neurosci/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_neurosci/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C42C7562-527B-2547-A173-56831998E21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD48402C-B1DA-0446-9252-EC4CF2F786B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="430" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="121">
   <si>
     <t>DOI</t>
   </si>
@@ -256,9 +256,6 @@
     <t>Rhod-2 fluorescence (F/F0)</t>
   </si>
   <si>
-    <t>Peak classification accuract</t>
-  </si>
-  <si>
     <t>Fraction correct</t>
   </si>
   <si>
@@ -296,13 +293,103 @@
   </si>
   <si>
     <t>Cumulative duration in light area (s)</t>
+  </si>
+  <si>
+    <t>Absolute/Relative</t>
+  </si>
+  <si>
+    <t>Measurement Type</t>
+  </si>
+  <si>
+    <t>Physical quantity I</t>
+  </si>
+  <si>
+    <t>Physical quantity II</t>
+  </si>
+  <si>
+    <t>Log transformation</t>
+  </si>
+  <si>
+    <t>Relative</t>
+  </si>
+  <si>
+    <t>Ratio</t>
+  </si>
+  <si>
+    <t>Prediction metric</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Peak classification accuracy</t>
+  </si>
+  <si>
+    <t>Absolute</t>
+  </si>
+  <si>
+    <t>Measured value</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Amplitude</t>
+  </si>
+  <si>
+    <t>Potential</t>
+  </si>
+  <si>
+    <t>Rate</t>
+  </si>
+  <si>
+    <t>Percentage</t>
+  </si>
+  <si>
+    <t>Cell percentage</t>
+  </si>
+  <si>
+    <t>Calculated value</t>
+  </si>
+  <si>
+    <t>Fluorescence</t>
+  </si>
+  <si>
+    <t>Relative luminescence</t>
+  </si>
+  <si>
+    <t>Fraction</t>
+  </si>
+  <si>
+    <t>Body mass</t>
+  </si>
+  <si>
+    <t>Mass</t>
+  </si>
+  <si>
+    <t>Temperature</t>
+  </si>
+  <si>
+    <t>Probability</t>
+  </si>
+  <si>
+    <t>Index</t>
+  </si>
+  <si>
+    <t>Constant</t>
+  </si>
+  <si>
+    <t>Relative expression</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -316,6 +403,21 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -325,7 +427,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -359,11 +461,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -371,6 +482,13 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -673,15 +791,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E86"/>
+  <dimension ref="A1:J86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="213" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="213" workbookViewId="0">
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -697,8 +818,23 @@
       <c r="E1" s="2" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="G1" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="H1" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -714,8 +850,23 @@
       <c r="E2" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" t="s">
+        <v>96</v>
+      </c>
+      <c r="G2" t="s">
+        <v>108</v>
+      </c>
+      <c r="H2" t="s">
+        <v>108</v>
+      </c>
+      <c r="I2" t="s">
+        <v>108</v>
+      </c>
+      <c r="J2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -731,8 +882,23 @@
       <c r="E3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" t="s">
+        <v>108</v>
+      </c>
+      <c r="I3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -748,8 +914,23 @@
       <c r="E4" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" t="s">
+        <v>108</v>
+      </c>
+      <c r="H4" t="s">
+        <v>108</v>
+      </c>
+      <c r="I4" t="s">
+        <v>108</v>
+      </c>
+      <c r="J4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -765,8 +946,23 @@
       <c r="E5" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -782,8 +978,23 @@
       <c r="E6" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F6" t="s">
+        <v>96</v>
+      </c>
+      <c r="G6" t="s">
+        <v>108</v>
+      </c>
+      <c r="H6" t="s">
+        <v>108</v>
+      </c>
+      <c r="I6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -799,8 +1010,23 @@
       <c r="E7" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" t="s">
+        <v>115</v>
+      </c>
+      <c r="I7" t="s">
+        <v>115</v>
+      </c>
+      <c r="J7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -816,8 +1042,23 @@
       <c r="E8" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" t="s">
+        <v>96</v>
+      </c>
+      <c r="G8" t="s">
+        <v>102</v>
+      </c>
+      <c r="H8" t="s">
+        <v>116</v>
+      </c>
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -833,8 +1074,23 @@
       <c r="E9" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>102</v>
+      </c>
+      <c r="H9" t="s">
+        <v>116</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -850,8 +1106,23 @@
       <c r="E10" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" t="s">
+        <v>101</v>
+      </c>
+      <c r="G10" t="s">
+        <v>102</v>
+      </c>
+      <c r="H10" t="s">
+        <v>115</v>
+      </c>
+      <c r="I10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -867,8 +1138,23 @@
       <c r="E11" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" t="s">
+        <v>96</v>
+      </c>
+      <c r="G11" t="s">
+        <v>102</v>
+      </c>
+      <c r="H11" t="s">
+        <v>116</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -884,8 +1170,23 @@
       <c r="E12" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" t="s">
+        <v>96</v>
+      </c>
+      <c r="G12" t="s">
+        <v>110</v>
+      </c>
+      <c r="H12" t="s">
+        <v>118</v>
+      </c>
+      <c r="I12" t="s">
+        <v>119</v>
+      </c>
+      <c r="J12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>18</v>
       </c>
@@ -901,8 +1202,23 @@
       <c r="E13" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>110</v>
+      </c>
+      <c r="H13" t="s">
+        <v>118</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>19</v>
       </c>
@@ -918,8 +1234,23 @@
       <c r="E14" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" t="s">
+        <v>101</v>
+      </c>
+      <c r="G14" t="s">
+        <v>102</v>
+      </c>
+      <c r="H14" t="s">
+        <v>104</v>
+      </c>
+      <c r="I14" t="s">
+        <v>104</v>
+      </c>
+      <c r="J14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>19</v>
       </c>
@@ -935,8 +1266,23 @@
       <c r="E15" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" t="s">
+        <v>101</v>
+      </c>
+      <c r="G15" t="s">
+        <v>102</v>
+      </c>
+      <c r="H15" t="s">
+        <v>104</v>
+      </c>
+      <c r="I15" t="s">
+        <v>104</v>
+      </c>
+      <c r="J15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>20</v>
       </c>
@@ -952,8 +1298,23 @@
       <c r="E16" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" t="s">
+        <v>96</v>
+      </c>
+      <c r="G16" t="s">
+        <v>110</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s">
+        <v>98</v>
+      </c>
+      <c r="J16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>20</v>
       </c>
@@ -969,8 +1330,23 @@
       <c r="E17" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" t="s">
+        <v>110</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>98</v>
+      </c>
+      <c r="J17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -986,8 +1362,23 @@
       <c r="E18" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" t="s">
+        <v>96</v>
+      </c>
+      <c r="G18" t="s">
+        <v>110</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>98</v>
+      </c>
+      <c r="J18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>20</v>
       </c>
@@ -1003,8 +1394,23 @@
       <c r="E19" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" t="s">
+        <v>96</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
+      </c>
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s">
+        <v>98</v>
+      </c>
+      <c r="J19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1020,8 +1426,23 @@
       <c r="E20" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" t="s">
+        <v>96</v>
+      </c>
+      <c r="G20" t="s">
+        <v>110</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>98</v>
+      </c>
+      <c r="J20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1037,8 +1458,23 @@
       <c r="E21" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" t="s">
+        <v>96</v>
+      </c>
+      <c r="G21" t="s">
+        <v>110</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s">
+        <v>98</v>
+      </c>
+      <c r="J21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1054,8 +1490,23 @@
       <c r="E22" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" t="s">
+        <v>110</v>
+      </c>
+      <c r="H22" t="s">
+        <v>79</v>
+      </c>
+      <c r="I22" t="s">
+        <v>98</v>
+      </c>
+      <c r="J22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -1071,8 +1522,23 @@
       <c r="E23" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" t="s">
+        <v>96</v>
+      </c>
+      <c r="G23" t="s">
+        <v>110</v>
+      </c>
+      <c r="H23" t="s">
+        <v>79</v>
+      </c>
+      <c r="I23" t="s">
+        <v>98</v>
+      </c>
+      <c r="J23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>20</v>
       </c>
@@ -1088,8 +1554,23 @@
       <c r="E24" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" t="s">
+        <v>110</v>
+      </c>
+      <c r="H24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I24" t="s">
+        <v>98</v>
+      </c>
+      <c r="J24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>20</v>
       </c>
@@ -1105,8 +1586,23 @@
       <c r="E25" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" t="s">
+        <v>110</v>
+      </c>
+      <c r="H25" t="s">
+        <v>79</v>
+      </c>
+      <c r="I25" t="s">
+        <v>98</v>
+      </c>
+      <c r="J25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>20</v>
       </c>
@@ -1122,8 +1618,23 @@
       <c r="E26" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" t="s">
+        <v>96</v>
+      </c>
+      <c r="G26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H26" t="s">
+        <v>79</v>
+      </c>
+      <c r="I26" t="s">
+        <v>98</v>
+      </c>
+      <c r="J26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>20</v>
       </c>
@@ -1139,8 +1650,23 @@
       <c r="E27" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" t="s">
+        <v>96</v>
+      </c>
+      <c r="G27" t="s">
+        <v>110</v>
+      </c>
+      <c r="H27" t="s">
+        <v>79</v>
+      </c>
+      <c r="I27" t="s">
+        <v>98</v>
+      </c>
+      <c r="J27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>20</v>
       </c>
@@ -1156,8 +1682,23 @@
       <c r="E28" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" t="s">
+        <v>96</v>
+      </c>
+      <c r="G28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H28" t="s">
+        <v>79</v>
+      </c>
+      <c r="I28" t="s">
+        <v>98</v>
+      </c>
+      <c r="J28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>20</v>
       </c>
@@ -1173,8 +1714,23 @@
       <c r="E29" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" t="s">
+        <v>96</v>
+      </c>
+      <c r="G29" t="s">
+        <v>110</v>
+      </c>
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -1190,8 +1746,23 @@
       <c r="E30" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" t="s">
+        <v>96</v>
+      </c>
+      <c r="G30" t="s">
+        <v>110</v>
+      </c>
+      <c r="H30" t="s">
+        <v>79</v>
+      </c>
+      <c r="I30" t="s">
+        <v>98</v>
+      </c>
+      <c r="J30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>20</v>
       </c>
@@ -1207,8 +1778,23 @@
       <c r="E31" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" t="s">
+        <v>96</v>
+      </c>
+      <c r="G31" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" t="s">
+        <v>79</v>
+      </c>
+      <c r="I31" t="s">
+        <v>98</v>
+      </c>
+      <c r="J31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>20</v>
       </c>
@@ -1224,8 +1810,23 @@
       <c r="E32" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" t="s">
+        <v>96</v>
+      </c>
+      <c r="G32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H32" t="s">
+        <v>79</v>
+      </c>
+      <c r="I32" t="s">
+        <v>98</v>
+      </c>
+      <c r="J32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>20</v>
       </c>
@@ -1241,8 +1842,23 @@
       <c r="E33" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G33" t="s">
+        <v>110</v>
+      </c>
+      <c r="H33" t="s">
+        <v>79</v>
+      </c>
+      <c r="I33" t="s">
+        <v>98</v>
+      </c>
+      <c r="J33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -1258,8 +1874,23 @@
       <c r="E34" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" t="s">
+        <v>96</v>
+      </c>
+      <c r="G34" t="s">
+        <v>110</v>
+      </c>
+      <c r="H34" t="s">
+        <v>79</v>
+      </c>
+      <c r="I34" t="s">
+        <v>98</v>
+      </c>
+      <c r="J34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>20</v>
       </c>
@@ -1275,8 +1906,23 @@
       <c r="E35" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" t="s">
+        <v>96</v>
+      </c>
+      <c r="G35" t="s">
+        <v>110</v>
+      </c>
+      <c r="H35" t="s">
+        <v>79</v>
+      </c>
+      <c r="I35" t="s">
+        <v>98</v>
+      </c>
+      <c r="J35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -1292,8 +1938,23 @@
       <c r="E36" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36" t="s">
+        <v>110</v>
+      </c>
+      <c r="H36" t="s">
+        <v>79</v>
+      </c>
+      <c r="I36" t="s">
+        <v>98</v>
+      </c>
+      <c r="J36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -1309,8 +1970,23 @@
       <c r="E37" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" t="s">
+        <v>96</v>
+      </c>
+      <c r="G37" t="s">
+        <v>110</v>
+      </c>
+      <c r="H37" t="s">
+        <v>79</v>
+      </c>
+      <c r="I37" t="s">
+        <v>98</v>
+      </c>
+      <c r="J37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>20</v>
       </c>
@@ -1326,8 +2002,23 @@
       <c r="E38" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" t="s">
+        <v>96</v>
+      </c>
+      <c r="G38" t="s">
+        <v>110</v>
+      </c>
+      <c r="H38" t="s">
+        <v>79</v>
+      </c>
+      <c r="I38" t="s">
+        <v>98</v>
+      </c>
+      <c r="J38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
@@ -1343,8 +2034,23 @@
       <c r="E39" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" t="s">
+        <v>96</v>
+      </c>
+      <c r="G39" t="s">
+        <v>110</v>
+      </c>
+      <c r="H39" t="s">
+        <v>79</v>
+      </c>
+      <c r="I39" t="s">
+        <v>98</v>
+      </c>
+      <c r="J39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>20</v>
       </c>
@@ -1360,8 +2066,23 @@
       <c r="E40" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" t="s">
+        <v>96</v>
+      </c>
+      <c r="G40" t="s">
+        <v>110</v>
+      </c>
+      <c r="H40" t="s">
+        <v>79</v>
+      </c>
+      <c r="I40" t="s">
+        <v>98</v>
+      </c>
+      <c r="J40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>20</v>
       </c>
@@ -1377,8 +2098,23 @@
       <c r="E41" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" t="s">
+        <v>96</v>
+      </c>
+      <c r="G41" t="s">
+        <v>110</v>
+      </c>
+      <c r="H41" t="s">
+        <v>79</v>
+      </c>
+      <c r="I41" t="s">
+        <v>98</v>
+      </c>
+      <c r="J41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>20</v>
       </c>
@@ -1394,8 +2130,23 @@
       <c r="E42" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" t="s">
+        <v>96</v>
+      </c>
+      <c r="G42" t="s">
+        <v>110</v>
+      </c>
+      <c r="H42" t="s">
+        <v>79</v>
+      </c>
+      <c r="I42" t="s">
+        <v>98</v>
+      </c>
+      <c r="J42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>40</v>
       </c>
@@ -1411,8 +2162,23 @@
       <c r="E43" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" t="s">
+        <v>96</v>
+      </c>
+      <c r="G43" t="s">
+        <v>113</v>
+      </c>
+      <c r="H43" t="s">
+        <v>117</v>
+      </c>
+      <c r="I43" t="s">
+        <v>113</v>
+      </c>
+      <c r="J43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>41</v>
       </c>
@@ -1428,8 +2194,23 @@
       <c r="E44" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" t="s">
+        <v>96</v>
+      </c>
+      <c r="G44" t="s">
+        <v>108</v>
+      </c>
+      <c r="H44" t="s">
+        <v>108</v>
+      </c>
+      <c r="I44" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>41</v>
       </c>
@@ -1445,8 +2226,23 @@
       <c r="E45" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" t="s">
+        <v>96</v>
+      </c>
+      <c r="G45" t="s">
+        <v>108</v>
+      </c>
+      <c r="H45" t="s">
+        <v>108</v>
+      </c>
+      <c r="I45" t="s">
+        <v>108</v>
+      </c>
+      <c r="J45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -1462,8 +2258,23 @@
       <c r="E46" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" t="s">
+        <v>96</v>
+      </c>
+      <c r="G46" t="s">
+        <v>108</v>
+      </c>
+      <c r="H46" t="s">
+        <v>108</v>
+      </c>
+      <c r="I46" t="s">
+        <v>108</v>
+      </c>
+      <c r="J46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -1479,8 +2290,23 @@
       <c r="E47" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" t="s">
+        <v>96</v>
+      </c>
+      <c r="G47" t="s">
+        <v>108</v>
+      </c>
+      <c r="H47" t="s">
+        <v>108</v>
+      </c>
+      <c r="I47" t="s">
+        <v>108</v>
+      </c>
+      <c r="J47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -1496,8 +2322,23 @@
       <c r="E48" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" t="s">
+        <v>96</v>
+      </c>
+      <c r="G48" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" t="s">
+        <v>108</v>
+      </c>
+      <c r="I48" t="s">
+        <v>108</v>
+      </c>
+      <c r="J48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>43</v>
       </c>
@@ -1513,8 +2354,23 @@
       <c r="E49" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" t="s">
+        <v>96</v>
+      </c>
+      <c r="G49" t="s">
+        <v>113</v>
+      </c>
+      <c r="H49" t="s">
+        <v>113</v>
+      </c>
+      <c r="I49" t="s">
+        <v>113</v>
+      </c>
+      <c r="J49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>44</v>
       </c>
@@ -1530,8 +2386,23 @@
       <c r="E50" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" t="s">
+        <v>101</v>
+      </c>
+      <c r="G50" t="s">
+        <v>102</v>
+      </c>
+      <c r="H50" t="s">
+        <v>104</v>
+      </c>
+      <c r="I50" t="s">
+        <v>104</v>
+      </c>
+      <c r="J50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>44</v>
       </c>
@@ -1547,8 +2418,23 @@
       <c r="E51" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" t="s">
+        <v>101</v>
+      </c>
+      <c r="G51" t="s">
+        <v>102</v>
+      </c>
+      <c r="H51" t="s">
+        <v>104</v>
+      </c>
+      <c r="I51" t="s">
+        <v>104</v>
+      </c>
+      <c r="J51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>45</v>
       </c>
@@ -1564,8 +2450,23 @@
       <c r="E52" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" t="s">
+        <v>96</v>
+      </c>
+      <c r="G52" t="s">
+        <v>97</v>
+      </c>
+      <c r="H52" t="s">
+        <v>120</v>
+      </c>
+      <c r="I52" t="s">
+        <v>120</v>
+      </c>
+      <c r="J52">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>46</v>
       </c>
@@ -1581,8 +2482,23 @@
       <c r="E53" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" t="s">
+        <v>96</v>
+      </c>
+      <c r="G53" t="s">
+        <v>97</v>
+      </c>
+      <c r="H53" t="s">
+        <v>97</v>
+      </c>
+      <c r="I53" t="s">
+        <v>97</v>
+      </c>
+      <c r="J53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>47</v>
       </c>
@@ -1598,8 +2514,23 @@
       <c r="E54" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" t="s">
+        <v>96</v>
+      </c>
+      <c r="G54" t="s">
+        <v>97</v>
+      </c>
+      <c r="H54" t="s">
+        <v>97</v>
+      </c>
+      <c r="I54" t="s">
+        <v>97</v>
+      </c>
+      <c r="J54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>47</v>
       </c>
@@ -1615,8 +2546,23 @@
       <c r="E55" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" t="s">
+        <v>96</v>
+      </c>
+      <c r="G55" t="s">
+        <v>108</v>
+      </c>
+      <c r="H55" t="s">
+        <v>108</v>
+      </c>
+      <c r="I55" t="s">
+        <v>108</v>
+      </c>
+      <c r="J55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>47</v>
       </c>
@@ -1632,8 +2578,23 @@
       <c r="E56" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" t="s">
+        <v>96</v>
+      </c>
+      <c r="G56" t="s">
+        <v>110</v>
+      </c>
+      <c r="H56" t="s">
+        <v>111</v>
+      </c>
+      <c r="I56" t="s">
+        <v>112</v>
+      </c>
+      <c r="J56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>47</v>
       </c>
@@ -1649,8 +2610,23 @@
       <c r="E57" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" t="s">
+        <v>101</v>
+      </c>
+      <c r="G57" t="s">
+        <v>102</v>
+      </c>
+      <c r="H57" t="s">
+        <v>119</v>
+      </c>
+      <c r="I57" t="s">
+        <v>119</v>
+      </c>
+      <c r="J57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>47</v>
       </c>
@@ -1666,8 +2642,23 @@
       <c r="E58" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" t="s">
+        <v>96</v>
+      </c>
+      <c r="G58" t="s">
+        <v>97</v>
+      </c>
+      <c r="H58" t="s">
+        <v>97</v>
+      </c>
+      <c r="I58" t="s">
+        <v>97</v>
+      </c>
+      <c r="J58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>48</v>
       </c>
@@ -1683,8 +2674,23 @@
       <c r="E59" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" t="s">
+        <v>101</v>
+      </c>
+      <c r="G59" t="s">
+        <v>102</v>
+      </c>
+      <c r="H59" t="s">
+        <v>114</v>
+      </c>
+      <c r="I59" t="s">
+        <v>115</v>
+      </c>
+      <c r="J59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>48</v>
       </c>
@@ -1700,8 +2706,23 @@
       <c r="E60" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" t="s">
+        <v>96</v>
+      </c>
+      <c r="G60" t="s">
+        <v>110</v>
+      </c>
+      <c r="H60" t="s">
+        <v>111</v>
+      </c>
+      <c r="I60" t="s">
+        <v>112</v>
+      </c>
+      <c r="J60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>48</v>
       </c>
@@ -1717,8 +2738,23 @@
       <c r="E61" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" t="s">
+        <v>101</v>
+      </c>
+      <c r="G61" t="s">
+        <v>102</v>
+      </c>
+      <c r="H61" t="s">
+        <v>114</v>
+      </c>
+      <c r="I61" t="s">
+        <v>115</v>
+      </c>
+      <c r="J61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>49</v>
       </c>
@@ -1732,10 +2768,25 @@
         <v>7</v>
       </c>
       <c r="E62" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+        <v>100</v>
+      </c>
+      <c r="F62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G62" t="s">
+        <v>110</v>
+      </c>
+      <c r="H62" t="s">
+        <v>79</v>
+      </c>
+      <c r="I62" t="s">
+        <v>98</v>
+      </c>
+      <c r="J62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>49</v>
       </c>
@@ -1749,10 +2800,25 @@
         <v>7</v>
       </c>
       <c r="E63" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+        <v>78</v>
+      </c>
+      <c r="F63" t="s">
+        <v>96</v>
+      </c>
+      <c r="G63" t="s">
+        <v>113</v>
+      </c>
+      <c r="H63" t="s">
+        <v>113</v>
+      </c>
+      <c r="I63" t="s">
+        <v>113</v>
+      </c>
+      <c r="J63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>49</v>
       </c>
@@ -1766,10 +2832,25 @@
         <v>7</v>
       </c>
       <c r="E64" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="F64" t="s">
+        <v>96</v>
+      </c>
+      <c r="G64" t="s">
+        <v>110</v>
+      </c>
+      <c r="H64" t="s">
+        <v>79</v>
+      </c>
+      <c r="I64" t="s">
+        <v>98</v>
+      </c>
+      <c r="J64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>49</v>
       </c>
@@ -1783,10 +2864,25 @@
         <v>7</v>
       </c>
       <c r="E65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="F65" t="s">
+        <v>96</v>
+      </c>
+      <c r="G65" t="s">
+        <v>110</v>
+      </c>
+      <c r="H65" t="s">
+        <v>79</v>
+      </c>
+      <c r="I65" t="s">
+        <v>98</v>
+      </c>
+      <c r="J65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>49</v>
       </c>
@@ -1800,10 +2896,25 @@
         <v>7</v>
       </c>
       <c r="E66" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="F66" t="s">
+        <v>96</v>
+      </c>
+      <c r="G66" t="s">
+        <v>110</v>
+      </c>
+      <c r="H66" t="s">
+        <v>79</v>
+      </c>
+      <c r="I66" t="s">
+        <v>98</v>
+      </c>
+      <c r="J66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>49</v>
       </c>
@@ -1817,10 +2928,25 @@
         <v>7</v>
       </c>
       <c r="E67" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="F67" t="s">
+        <v>96</v>
+      </c>
+      <c r="G67" t="s">
+        <v>110</v>
+      </c>
+      <c r="H67" t="s">
+        <v>79</v>
+      </c>
+      <c r="I67" t="s">
+        <v>98</v>
+      </c>
+      <c r="J67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>49</v>
       </c>
@@ -1834,10 +2960,25 @@
         <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="F68" t="s">
+        <v>96</v>
+      </c>
+      <c r="G68" t="s">
+        <v>110</v>
+      </c>
+      <c r="H68" t="s">
+        <v>79</v>
+      </c>
+      <c r="I68" t="s">
+        <v>98</v>
+      </c>
+      <c r="J68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>49</v>
       </c>
@@ -1851,10 +2992,25 @@
         <v>7</v>
       </c>
       <c r="E69" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+        <v>79</v>
+      </c>
+      <c r="F69" t="s">
+        <v>96</v>
+      </c>
+      <c r="G69" t="s">
+        <v>110</v>
+      </c>
+      <c r="H69" t="s">
+        <v>79</v>
+      </c>
+      <c r="I69" t="s">
+        <v>98</v>
+      </c>
+      <c r="J69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>50</v>
       </c>
@@ -1868,10 +3024,25 @@
         <v>7</v>
       </c>
       <c r="E70" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="F70" t="s">
+        <v>96</v>
+      </c>
+      <c r="G70" t="s">
+        <v>97</v>
+      </c>
+      <c r="H70" t="s">
+        <v>97</v>
+      </c>
+      <c r="I70" t="s">
+        <v>97</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>50</v>
       </c>
@@ -1885,10 +3056,25 @@
         <v>7</v>
       </c>
       <c r="E71" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+        <v>80</v>
+      </c>
+      <c r="F71" t="s">
+        <v>96</v>
+      </c>
+      <c r="G71" t="s">
+        <v>97</v>
+      </c>
+      <c r="H71" t="s">
+        <v>97</v>
+      </c>
+      <c r="I71" t="s">
+        <v>97</v>
+      </c>
+      <c r="J71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>50</v>
       </c>
@@ -1902,10 +3088,25 @@
         <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="F72" t="s">
+        <v>96</v>
+      </c>
+      <c r="G72" t="s">
+        <v>97</v>
+      </c>
+      <c r="H72" t="s">
+        <v>97</v>
+      </c>
+      <c r="I72" t="s">
+        <v>97</v>
+      </c>
+      <c r="J72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>50</v>
       </c>
@@ -1919,10 +3120,25 @@
         <v>7</v>
       </c>
       <c r="E73" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+        <v>81</v>
+      </c>
+      <c r="F73" t="s">
+        <v>96</v>
+      </c>
+      <c r="G73" t="s">
+        <v>97</v>
+      </c>
+      <c r="H73" t="s">
+        <v>97</v>
+      </c>
+      <c r="I73" t="s">
+        <v>97</v>
+      </c>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>51</v>
       </c>
@@ -1936,10 +3152,25 @@
         <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H74" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I74" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J74" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>51</v>
       </c>
@@ -1953,10 +3184,25 @@
         <v>7</v>
       </c>
       <c r="E75" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="F75" t="s">
+        <v>96</v>
+      </c>
+      <c r="G75" t="s">
+        <v>110</v>
+      </c>
+      <c r="H75" t="s">
+        <v>111</v>
+      </c>
+      <c r="I75" t="s">
+        <v>112</v>
+      </c>
+      <c r="J75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>51</v>
       </c>
@@ -1970,10 +3216,25 @@
         <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+        <v>89</v>
+      </c>
+      <c r="F76" t="s">
+        <v>96</v>
+      </c>
+      <c r="G76" t="s">
+        <v>110</v>
+      </c>
+      <c r="H76" t="s">
+        <v>111</v>
+      </c>
+      <c r="I76" t="s">
+        <v>112</v>
+      </c>
+      <c r="J76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>51</v>
       </c>
@@ -1987,10 +3248,25 @@
         <v>7</v>
       </c>
       <c r="E77" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G77" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="H77" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="I77" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="J77" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>51</v>
       </c>
@@ -2004,10 +3280,25 @@
         <v>7</v>
       </c>
       <c r="E78" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="F78" t="s">
+        <v>101</v>
+      </c>
+      <c r="G78" t="s">
+        <v>102</v>
+      </c>
+      <c r="H78" t="s">
+        <v>104</v>
+      </c>
+      <c r="I78" t="s">
+        <v>104</v>
+      </c>
+      <c r="J78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>51</v>
       </c>
@@ -2021,10 +3312,25 @@
         <v>7</v>
       </c>
       <c r="E79" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+        <v>83</v>
+      </c>
+      <c r="F79" t="s">
+        <v>96</v>
+      </c>
+      <c r="G79" t="s">
+        <v>108</v>
+      </c>
+      <c r="H79" t="s">
+        <v>109</v>
+      </c>
+      <c r="I79" t="s">
+        <v>108</v>
+      </c>
+      <c r="J79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>51</v>
       </c>
@@ -2038,10 +3344,25 @@
         <v>7</v>
       </c>
       <c r="E80" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+      <c r="F80" t="s">
+        <v>96</v>
+      </c>
+      <c r="G80" t="s">
+        <v>108</v>
+      </c>
+      <c r="H80" t="s">
+        <v>109</v>
+      </c>
+      <c r="I80" t="s">
+        <v>108</v>
+      </c>
+      <c r="J80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>51</v>
       </c>
@@ -2055,10 +3376,25 @@
         <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+        <v>85</v>
+      </c>
+      <c r="F81" t="s">
+        <v>101</v>
+      </c>
+      <c r="G81" t="s">
+        <v>102</v>
+      </c>
+      <c r="H81" t="s">
+        <v>104</v>
+      </c>
+      <c r="I81" t="s">
+        <v>104</v>
+      </c>
+      <c r="J81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>51</v>
       </c>
@@ -2072,10 +3408,25 @@
         <v>7</v>
       </c>
       <c r="E82" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="F82" t="s">
+        <v>101</v>
+      </c>
+      <c r="G82" t="s">
+        <v>102</v>
+      </c>
+      <c r="H82" t="s">
+        <v>107</v>
+      </c>
+      <c r="I82" t="s">
+        <v>107</v>
+      </c>
+      <c r="J82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>51</v>
       </c>
@@ -2089,10 +3440,25 @@
         <v>7</v>
       </c>
       <c r="E83" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+        <v>87</v>
+      </c>
+      <c r="F83" t="s">
+        <v>101</v>
+      </c>
+      <c r="G83" t="s">
+        <v>102</v>
+      </c>
+      <c r="H83" t="s">
+        <v>103</v>
+      </c>
+      <c r="I83" t="s">
+        <v>103</v>
+      </c>
+      <c r="J83" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>51</v>
       </c>
@@ -2106,10 +3472,25 @@
         <v>7</v>
       </c>
       <c r="E84" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="F84" t="s">
+        <v>101</v>
+      </c>
+      <c r="G84" t="s">
+        <v>102</v>
+      </c>
+      <c r="H84" t="s">
+        <v>104</v>
+      </c>
+      <c r="I84" t="s">
+        <v>104</v>
+      </c>
+      <c r="J84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>51</v>
       </c>
@@ -2123,10 +3504,25 @@
         <v>7</v>
       </c>
       <c r="E85" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+        <v>88</v>
+      </c>
+      <c r="F85" t="s">
+        <v>101</v>
+      </c>
+      <c r="G85" t="s">
+        <v>102</v>
+      </c>
+      <c r="H85" t="s">
+        <v>105</v>
+      </c>
+      <c r="I85" t="s">
+        <v>106</v>
+      </c>
+      <c r="J85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>51</v>
       </c>
@@ -2140,7 +3536,22 @@
         <v>7</v>
       </c>
       <c r="E86" t="s">
-        <v>83</v>
+        <v>82</v>
+      </c>
+      <c r="F86" t="s">
+        <v>96</v>
+      </c>
+      <c r="G86" t="s">
+        <v>108</v>
+      </c>
+      <c r="H86" t="s">
+        <v>108</v>
+      </c>
+      <c r="I86" t="s">
+        <v>108</v>
+      </c>
+      <c r="J86" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/data/misused_bar_graph_figures/nat_neurosci/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_neurosci/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_neurosci/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD48402C-B1DA-0446-9252-EC4CF2F786B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E8D501-C7C5-7947-B32E-2B0E58B7D032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="37620" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="207">
   <si>
     <t>DOI</t>
   </si>
@@ -383,6 +383,264 @@
   </si>
   <si>
     <t>Relative expression</t>
+  </si>
+  <si>
+    <t>Fig Index</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-022-01237-9_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-022-01237-9_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-022-01237-9_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-022-01245-9_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-022-01253-9_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01268-w_zero_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01268-w_zero_fig12</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01268-w_zero_fig13</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01268-w_zero_fig14</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01268-w_zero_fig15</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01288-6_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01288-6_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01290-y_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01290-y_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig12</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig13</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig14</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig15</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig16</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig17</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig18</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig19</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig20</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig21</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig22</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig23</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig24</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig25</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig26</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig27</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01296-6_zero_fig9</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01307-6_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01316-5_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01316-5_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01326-3_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01326-3_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01326-3_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01327-2_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01350-3_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01350-3_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01351-2_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01352-1_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01355-y_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01355-y_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01355-y_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01355-y_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01355-y_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01406-4_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01406-4_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01406-4_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01409-1_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01409-1_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01409-1_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01409-1_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01409-1_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01409-1_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01409-1_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01409-1_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01451-z_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01451-z_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01451-z_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01451-z_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01499-x_zero_fig1</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01499-x_zero_fig10</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01499-x_zero_fig11</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01499-x_zero_fig12</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01499-x_zero_fig13</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01499-x_zero_fig2</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01499-x_zero_fig3</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01499-x_zero_fig4</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01499-x_zero_fig5</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01499-x_zero_fig6</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01499-x_zero_fig7</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01499-x_zero_fig8</t>
+  </si>
+  <si>
+    <t>10.1038:s41593-023-01499-x_zero_fig9</t>
   </si>
 </sst>
 </file>
@@ -791,70 +1049,73 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J86"/>
+  <dimension ref="A1:K86"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="213" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="5" max="5" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>92</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="J1" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="K1" s="4" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A2" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
       <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
       <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
         <v>53</v>
       </c>
-      <c r="F2" t="s">
-        <v>96</v>
-      </c>
       <c r="G2" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H2" t="s">
         <v>108</v>
@@ -863,30 +1124,33 @@
         <v>108</v>
       </c>
       <c r="J2" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+        <v>108</v>
+      </c>
+      <c r="K2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
       <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
         <v>8</v>
       </c>
-      <c r="D3" t="s">
-        <v>7</v>
-      </c>
       <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
         <v>53</v>
       </c>
-      <c r="F3" t="s">
-        <v>96</v>
-      </c>
       <c r="G3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H3" t="s">
         <v>108</v>
@@ -895,30 +1159,33 @@
         <v>108</v>
       </c>
       <c r="J3" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+        <v>108</v>
+      </c>
+      <c r="K3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A4" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>5</v>
-      </c>
       <c r="C4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="D4" t="s">
-        <v>7</v>
-      </c>
       <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
         <v>53</v>
       </c>
-      <c r="F4" t="s">
-        <v>96</v>
-      </c>
       <c r="G4" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H4" t="s">
         <v>108</v>
@@ -927,30 +1194,33 @@
         <v>108</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B5" t="s">
         <v>10</v>
       </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
       <c r="C5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="D5" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
         <v>54</v>
       </c>
-      <c r="F5" t="s">
-        <v>96</v>
-      </c>
       <c r="G5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H5" t="s">
         <v>108</v>
@@ -959,30 +1229,33 @@
         <v>108</v>
       </c>
       <c r="J5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B6" t="s">
         <v>11</v>
       </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
       <c r="C6" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" t="s">
-        <v>7</v>
-      </c>
       <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
         <v>55</v>
       </c>
-      <c r="F6" t="s">
-        <v>96</v>
-      </c>
       <c r="G6" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H6" t="s">
         <v>108</v>
@@ -991,1214 +1264,1328 @@
         <v>108</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+        <v>108</v>
+      </c>
+      <c r="K6" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
       <c r="C7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="D7" t="s">
-        <v>7</v>
-      </c>
       <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
         <v>56</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>101</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>102</v>
-      </c>
-      <c r="H7" t="s">
-        <v>115</v>
       </c>
       <c r="I7" t="s">
         <v>115</v>
       </c>
       <c r="J7" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K7" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" t="s">
-        <v>5</v>
-      </c>
       <c r="C8" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="D8" t="s">
-        <v>7</v>
-      </c>
       <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
         <v>57</v>
       </c>
-      <c r="F8" t="s">
-        <v>96</v>
-      </c>
       <c r="G8" t="s">
+        <v>96</v>
+      </c>
+      <c r="H8" t="s">
         <v>102</v>
-      </c>
-      <c r="H8" t="s">
-        <v>116</v>
       </c>
       <c r="I8" t="s">
         <v>116</v>
       </c>
       <c r="J8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
+        <v>116</v>
+      </c>
+      <c r="K8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B9" t="s">
         <v>12</v>
       </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
       <c r="C9" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>7</v>
-      </c>
       <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
         <v>58</v>
       </c>
-      <c r="F9" t="s">
-        <v>96</v>
-      </c>
       <c r="G9" t="s">
+        <v>96</v>
+      </c>
+      <c r="H9" t="s">
         <v>102</v>
-      </c>
-      <c r="H9" t="s">
-        <v>116</v>
       </c>
       <c r="I9" t="s">
         <v>116</v>
       </c>
       <c r="J9" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
+        <v>116</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B10" t="s">
         <v>12</v>
       </c>
-      <c r="B10" t="s">
-        <v>5</v>
-      </c>
       <c r="C10" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="D10" t="s">
-        <v>7</v>
-      </c>
       <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
         <v>59</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>101</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>102</v>
-      </c>
-      <c r="H10" t="s">
-        <v>115</v>
       </c>
       <c r="I10" t="s">
         <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B11" t="s">
         <v>12</v>
       </c>
-      <c r="B11" t="s">
-        <v>5</v>
-      </c>
       <c r="C11" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="D11" t="s">
-        <v>7</v>
-      </c>
       <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
         <v>58</v>
       </c>
-      <c r="F11" t="s">
-        <v>96</v>
-      </c>
       <c r="G11" t="s">
+        <v>96</v>
+      </c>
+      <c r="H11" t="s">
         <v>102</v>
-      </c>
-      <c r="H11" t="s">
-        <v>116</v>
       </c>
       <c r="I11" t="s">
         <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B12" t="s">
         <v>18</v>
       </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
       <c r="C12" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" t="s">
         <v>6</v>
       </c>
-      <c r="D12" t="s">
-        <v>7</v>
-      </c>
       <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
         <v>60</v>
       </c>
-      <c r="F12" t="s">
-        <v>96</v>
-      </c>
       <c r="G12" t="s">
+        <v>96</v>
+      </c>
+      <c r="H12" t="s">
         <v>110</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>118</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>119</v>
       </c>
-      <c r="J12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
+      <c r="K12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B13" t="s">
         <v>18</v>
       </c>
-      <c r="B13" t="s">
-        <v>5</v>
-      </c>
       <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" t="s">
         <v>8</v>
       </c>
-      <c r="D13" t="s">
-        <v>7</v>
-      </c>
       <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
         <v>60</v>
       </c>
-      <c r="F13" t="s">
-        <v>96</v>
-      </c>
       <c r="G13" t="s">
+        <v>96</v>
+      </c>
+      <c r="H13" t="s">
         <v>110</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>118</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>119</v>
       </c>
-      <c r="J13" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
+      <c r="K13" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
         <v>19</v>
       </c>
-      <c r="B14" t="s">
-        <v>5</v>
-      </c>
       <c r="C14" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
-        <v>7</v>
-      </c>
       <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
         <v>61</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>101</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>102</v>
-      </c>
-      <c r="H14" t="s">
-        <v>104</v>
       </c>
       <c r="I14" t="s">
         <v>104</v>
       </c>
       <c r="J14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
+        <v>104</v>
+      </c>
+      <c r="K14" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="B15" t="s">
         <v>19</v>
       </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
       <c r="C15" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" t="s">
         <v>8</v>
       </c>
-      <c r="D15" t="s">
-        <v>7</v>
-      </c>
       <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
         <v>61</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>101</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>102</v>
-      </c>
-      <c r="H15" t="s">
-        <v>104</v>
       </c>
       <c r="I15" t="s">
         <v>104</v>
       </c>
       <c r="J15" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+      <c r="K15" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B16" t="s">
         <v>20</v>
       </c>
-      <c r="B16" t="s">
-        <v>5</v>
-      </c>
       <c r="C16" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" t="s">
         <v>6</v>
       </c>
-      <c r="D16" t="s">
-        <v>7</v>
-      </c>
       <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
         <v>62</v>
       </c>
-      <c r="F16" t="s">
-        <v>96</v>
-      </c>
       <c r="G16" t="s">
+        <v>96</v>
+      </c>
+      <c r="H16" t="s">
         <v>110</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>79</v>
       </c>
-      <c r="I16" t="s">
+      <c r="J16" t="s">
         <v>98</v>
       </c>
-      <c r="J16" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" t="s">
+      <c r="K16" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B17" t="s">
         <v>20</v>
       </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
       <c r="C17" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" t="s">
         <v>21</v>
       </c>
-      <c r="D17" t="s">
-        <v>7</v>
-      </c>
       <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
         <v>62</v>
       </c>
-      <c r="F17" t="s">
-        <v>96</v>
-      </c>
       <c r="G17" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" t="s">
         <v>110</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>79</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>98</v>
       </c>
-      <c r="J17" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" t="s">
+      <c r="K17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A18" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B18" t="s">
         <v>20</v>
       </c>
-      <c r="B18" t="s">
-        <v>5</v>
-      </c>
       <c r="C18" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" t="s">
         <v>13</v>
       </c>
-      <c r="D18" t="s">
-        <v>7</v>
-      </c>
       <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
         <v>62</v>
       </c>
-      <c r="F18" t="s">
-        <v>96</v>
-      </c>
       <c r="G18" t="s">
+        <v>96</v>
+      </c>
+      <c r="H18" t="s">
         <v>110</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>79</v>
       </c>
-      <c r="I18" t="s">
+      <c r="J18" t="s">
         <v>98</v>
       </c>
-      <c r="J18" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
+      <c r="K18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B19" t="s">
         <v>20</v>
       </c>
-      <c r="B19" t="s">
-        <v>5</v>
-      </c>
       <c r="C19" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="D19" t="s">
-        <v>7</v>
-      </c>
       <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
         <v>62</v>
       </c>
-      <c r="F19" t="s">
-        <v>96</v>
-      </c>
       <c r="G19" t="s">
+        <v>96</v>
+      </c>
+      <c r="H19" t="s">
         <v>110</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>79</v>
       </c>
-      <c r="I19" t="s">
+      <c r="J19" t="s">
         <v>98</v>
       </c>
-      <c r="J19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20" t="s">
+      <c r="K19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="B20" t="s">
-        <v>5</v>
-      </c>
       <c r="C20" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
         <v>15</v>
       </c>
-      <c r="D20" t="s">
-        <v>7</v>
-      </c>
       <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
         <v>62</v>
       </c>
-      <c r="F20" t="s">
-        <v>96</v>
-      </c>
       <c r="G20" t="s">
+        <v>96</v>
+      </c>
+      <c r="H20" t="s">
         <v>110</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>79</v>
       </c>
-      <c r="I20" t="s">
+      <c r="J20" t="s">
         <v>98</v>
       </c>
-      <c r="J20" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21" t="s">
+      <c r="K20" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="B21" t="s">
-        <v>5</v>
-      </c>
       <c r="C21" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
         <v>16</v>
       </c>
-      <c r="D21" t="s">
-        <v>7</v>
-      </c>
       <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
         <v>62</v>
       </c>
-      <c r="F21" t="s">
-        <v>96</v>
-      </c>
       <c r="G21" t="s">
+        <v>96</v>
+      </c>
+      <c r="H21" t="s">
         <v>110</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>79</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>98</v>
       </c>
-      <c r="J21" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
+      <c r="K21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B22" t="s">
         <v>20</v>
       </c>
-      <c r="B22" t="s">
-        <v>5</v>
-      </c>
       <c r="C22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" t="s">
         <v>17</v>
       </c>
-      <c r="D22" t="s">
-        <v>7</v>
-      </c>
       <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
         <v>62</v>
       </c>
-      <c r="F22" t="s">
-        <v>96</v>
-      </c>
       <c r="G22" t="s">
+        <v>96</v>
+      </c>
+      <c r="H22" t="s">
         <v>110</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>79</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>98</v>
       </c>
-      <c r="J22" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
+      <c r="K22" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B23" t="s">
         <v>20</v>
       </c>
-      <c r="B23" t="s">
-        <v>5</v>
-      </c>
       <c r="C23" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
-        <v>7</v>
-      </c>
       <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
         <v>62</v>
       </c>
-      <c r="F23" t="s">
-        <v>96</v>
-      </c>
       <c r="G23" t="s">
+        <v>96</v>
+      </c>
+      <c r="H23" t="s">
         <v>110</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>79</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>98</v>
       </c>
-      <c r="J23" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
+      <c r="K23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" t="s">
         <v>20</v>
       </c>
-      <c r="B24" t="s">
-        <v>5</v>
-      </c>
       <c r="C24" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" t="s">
         <v>23</v>
       </c>
-      <c r="D24" t="s">
-        <v>7</v>
-      </c>
       <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
         <v>62</v>
       </c>
-      <c r="F24" t="s">
-        <v>96</v>
-      </c>
       <c r="G24" t="s">
+        <v>96</v>
+      </c>
+      <c r="H24" t="s">
         <v>110</v>
       </c>
-      <c r="H24" t="s">
+      <c r="I24" t="s">
         <v>79</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>98</v>
       </c>
-      <c r="J24" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" t="s">
+      <c r="K24" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B25" t="s">
         <v>20</v>
       </c>
-      <c r="B25" t="s">
-        <v>5</v>
-      </c>
       <c r="C25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" t="s">
         <v>24</v>
       </c>
-      <c r="D25" t="s">
-        <v>7</v>
-      </c>
       <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
         <v>62</v>
       </c>
-      <c r="F25" t="s">
-        <v>96</v>
-      </c>
       <c r="G25" t="s">
+        <v>96</v>
+      </c>
+      <c r="H25" t="s">
         <v>110</v>
       </c>
-      <c r="H25" t="s">
+      <c r="I25" t="s">
         <v>79</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>98</v>
       </c>
-      <c r="J25" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
+      <c r="K25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
         <v>20</v>
       </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
       <c r="C26" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" t="s">
         <v>25</v>
       </c>
-      <c r="D26" t="s">
-        <v>7</v>
-      </c>
       <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
         <v>62</v>
       </c>
-      <c r="F26" t="s">
-        <v>96</v>
-      </c>
       <c r="G26" t="s">
+        <v>96</v>
+      </c>
+      <c r="H26" t="s">
         <v>110</v>
       </c>
-      <c r="H26" t="s">
+      <c r="I26" t="s">
         <v>79</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>98</v>
       </c>
-      <c r="J26" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
+      <c r="K26" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B27" t="s">
         <v>20</v>
       </c>
-      <c r="B27" t="s">
-        <v>5</v>
-      </c>
       <c r="C27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" t="s">
         <v>8</v>
       </c>
-      <c r="D27" t="s">
-        <v>7</v>
-      </c>
       <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
         <v>62</v>
       </c>
-      <c r="F27" t="s">
-        <v>96</v>
-      </c>
       <c r="G27" t="s">
+        <v>96</v>
+      </c>
+      <c r="H27" t="s">
         <v>110</v>
       </c>
-      <c r="H27" t="s">
+      <c r="I27" t="s">
         <v>79</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>98</v>
       </c>
-      <c r="J27" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" t="s">
+      <c r="K27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" t="s">
         <v>20</v>
       </c>
-      <c r="B28" t="s">
-        <v>5</v>
-      </c>
       <c r="C28" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" t="s">
         <v>26</v>
       </c>
-      <c r="D28" t="s">
-        <v>7</v>
-      </c>
       <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
         <v>62</v>
       </c>
-      <c r="F28" t="s">
-        <v>96</v>
-      </c>
       <c r="G28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H28" t="s">
         <v>110</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>79</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>98</v>
       </c>
-      <c r="J28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" t="s">
+      <c r="K28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B29" t="s">
         <v>20</v>
       </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
       <c r="C29" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" t="s">
         <v>27</v>
       </c>
-      <c r="D29" t="s">
-        <v>7</v>
-      </c>
       <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
         <v>62</v>
       </c>
-      <c r="F29" t="s">
-        <v>96</v>
-      </c>
       <c r="G29" t="s">
+        <v>96</v>
+      </c>
+      <c r="H29" t="s">
         <v>110</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>79</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>98</v>
       </c>
-      <c r="J29" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
+      <c r="K29" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B30" t="s">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
       <c r="C30" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" t="s">
         <v>28</v>
       </c>
-      <c r="D30" t="s">
-        <v>7</v>
-      </c>
       <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
         <v>62</v>
       </c>
-      <c r="F30" t="s">
-        <v>96</v>
-      </c>
       <c r="G30" t="s">
+        <v>96</v>
+      </c>
+      <c r="H30" t="s">
         <v>110</v>
       </c>
-      <c r="H30" t="s">
+      <c r="I30" t="s">
         <v>79</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>98</v>
       </c>
-      <c r="J30" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
+      <c r="K30" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B31" t="s">
         <v>20</v>
       </c>
-      <c r="B31" t="s">
-        <v>5</v>
-      </c>
       <c r="C31" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" t="s">
         <v>29</v>
       </c>
-      <c r="D31" t="s">
-        <v>7</v>
-      </c>
       <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
         <v>62</v>
       </c>
-      <c r="F31" t="s">
-        <v>96</v>
-      </c>
       <c r="G31" t="s">
+        <v>96</v>
+      </c>
+      <c r="H31" t="s">
         <v>110</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>79</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>98</v>
       </c>
-      <c r="J31" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
+      <c r="K31" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" t="s">
         <v>20</v>
       </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
       <c r="C32" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" t="s">
         <v>30</v>
       </c>
-      <c r="D32" t="s">
-        <v>7</v>
-      </c>
       <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
         <v>62</v>
       </c>
-      <c r="F32" t="s">
-        <v>96</v>
-      </c>
       <c r="G32" t="s">
+        <v>96</v>
+      </c>
+      <c r="H32" t="s">
         <v>110</v>
       </c>
-      <c r="H32" t="s">
+      <c r="I32" t="s">
         <v>79</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>98</v>
       </c>
-      <c r="J32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
+      <c r="K32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B33" t="s">
         <v>20</v>
       </c>
-      <c r="B33" t="s">
-        <v>5</v>
-      </c>
       <c r="C33" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" t="s">
         <v>31</v>
       </c>
-      <c r="D33" t="s">
-        <v>7</v>
-      </c>
       <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
         <v>62</v>
       </c>
-      <c r="F33" t="s">
-        <v>96</v>
-      </c>
       <c r="G33" t="s">
+        <v>96</v>
+      </c>
+      <c r="H33" t="s">
         <v>110</v>
       </c>
-      <c r="H33" t="s">
+      <c r="I33" t="s">
         <v>79</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>98</v>
       </c>
-      <c r="J33" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" t="s">
+      <c r="K33" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B34" t="s">
         <v>20</v>
       </c>
-      <c r="B34" t="s">
-        <v>5</v>
-      </c>
       <c r="C34" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" t="s">
         <v>32</v>
       </c>
-      <c r="D34" t="s">
-        <v>7</v>
-      </c>
       <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
         <v>62</v>
       </c>
-      <c r="F34" t="s">
-        <v>96</v>
-      </c>
       <c r="G34" t="s">
+        <v>96</v>
+      </c>
+      <c r="H34" t="s">
         <v>110</v>
       </c>
-      <c r="H34" t="s">
+      <c r="I34" t="s">
         <v>79</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>98</v>
       </c>
-      <c r="J34" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" t="s">
+      <c r="K34" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B35" t="s">
         <v>20</v>
       </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
       <c r="C35" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" t="s">
         <v>33</v>
       </c>
-      <c r="D35" t="s">
-        <v>7</v>
-      </c>
       <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
         <v>62</v>
       </c>
-      <c r="F35" t="s">
-        <v>96</v>
-      </c>
       <c r="G35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H35" t="s">
         <v>110</v>
       </c>
-      <c r="H35" t="s">
+      <c r="I35" t="s">
         <v>79</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>98</v>
       </c>
-      <c r="J35" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="K35" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B36" t="s">
         <v>20</v>
       </c>
-      <c r="B36" t="s">
-        <v>5</v>
-      </c>
       <c r="C36" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" t="s">
         <v>9</v>
       </c>
-      <c r="D36" t="s">
-        <v>7</v>
-      </c>
       <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
         <v>62</v>
       </c>
-      <c r="F36" t="s">
-        <v>96</v>
-      </c>
       <c r="G36" t="s">
+        <v>96</v>
+      </c>
+      <c r="H36" t="s">
         <v>110</v>
       </c>
-      <c r="H36" t="s">
+      <c r="I36" t="s">
         <v>79</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>98</v>
       </c>
-      <c r="J36" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" t="s">
+      <c r="K36" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B37" t="s">
         <v>20</v>
       </c>
-      <c r="B37" t="s">
-        <v>5</v>
-      </c>
       <c r="C37" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" t="s">
         <v>34</v>
       </c>
-      <c r="D37" t="s">
-        <v>7</v>
-      </c>
       <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
         <v>62</v>
       </c>
-      <c r="F37" t="s">
-        <v>96</v>
-      </c>
       <c r="G37" t="s">
+        <v>96</v>
+      </c>
+      <c r="H37" t="s">
         <v>110</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>79</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>98</v>
       </c>
-      <c r="J37" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" t="s">
+      <c r="K37" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B38" t="s">
         <v>20</v>
       </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
       <c r="C38" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" t="s">
         <v>35</v>
       </c>
-      <c r="D38" t="s">
-        <v>7</v>
-      </c>
       <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
         <v>63</v>
       </c>
-      <c r="F38" t="s">
-        <v>96</v>
-      </c>
       <c r="G38" t="s">
+        <v>96</v>
+      </c>
+      <c r="H38" t="s">
         <v>110</v>
       </c>
-      <c r="H38" t="s">
+      <c r="I38" t="s">
         <v>79</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>98</v>
       </c>
-      <c r="J38" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" t="s">
+      <c r="K38" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B39" t="s">
         <v>20</v>
       </c>
-      <c r="B39" t="s">
-        <v>5</v>
-      </c>
       <c r="C39" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" t="s">
         <v>36</v>
       </c>
-      <c r="D39" t="s">
-        <v>7</v>
-      </c>
       <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
         <v>64</v>
       </c>
-      <c r="F39" t="s">
-        <v>96</v>
-      </c>
       <c r="G39" t="s">
+        <v>96</v>
+      </c>
+      <c r="H39" t="s">
         <v>110</v>
       </c>
-      <c r="H39" t="s">
+      <c r="I39" t="s">
         <v>79</v>
       </c>
-      <c r="I39" t="s">
+      <c r="J39" t="s">
         <v>98</v>
       </c>
-      <c r="J39" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" t="s">
+      <c r="K39" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B40" t="s">
         <v>20</v>
       </c>
-      <c r="B40" t="s">
-        <v>5</v>
-      </c>
       <c r="C40" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" t="s">
         <v>37</v>
       </c>
-      <c r="D40" t="s">
-        <v>7</v>
-      </c>
       <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
         <v>64</v>
       </c>
-      <c r="F40" t="s">
-        <v>96</v>
-      </c>
       <c r="G40" t="s">
+        <v>96</v>
+      </c>
+      <c r="H40" t="s">
         <v>110</v>
       </c>
-      <c r="H40" t="s">
+      <c r="I40" t="s">
         <v>79</v>
       </c>
-      <c r="I40" t="s">
+      <c r="J40" t="s">
         <v>98</v>
       </c>
-      <c r="J40" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" t="s">
+      <c r="K40" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B41" t="s">
         <v>20</v>
       </c>
-      <c r="B41" t="s">
-        <v>5</v>
-      </c>
       <c r="C41" t="s">
+        <v>5</v>
+      </c>
+      <c r="D41" t="s">
         <v>38</v>
       </c>
-      <c r="D41" t="s">
-        <v>7</v>
-      </c>
       <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
         <v>64</v>
       </c>
-      <c r="F41" t="s">
-        <v>96</v>
-      </c>
       <c r="G41" t="s">
+        <v>96</v>
+      </c>
+      <c r="H41" t="s">
         <v>110</v>
       </c>
-      <c r="H41" t="s">
+      <c r="I41" t="s">
         <v>79</v>
       </c>
-      <c r="I41" t="s">
+      <c r="J41" t="s">
         <v>98</v>
       </c>
-      <c r="J41" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" t="s">
+      <c r="K41" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B42" t="s">
         <v>20</v>
       </c>
-      <c r="B42" t="s">
-        <v>5</v>
-      </c>
       <c r="C42" t="s">
+        <v>5</v>
+      </c>
+      <c r="D42" t="s">
         <v>39</v>
       </c>
-      <c r="D42" t="s">
-        <v>7</v>
-      </c>
       <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
         <v>64</v>
       </c>
-      <c r="F42" t="s">
-        <v>96</v>
-      </c>
       <c r="G42" t="s">
+        <v>96</v>
+      </c>
+      <c r="H42" t="s">
         <v>110</v>
       </c>
-      <c r="H42" t="s">
+      <c r="I42" t="s">
         <v>79</v>
       </c>
-      <c r="I42" t="s">
+      <c r="J42" t="s">
         <v>98</v>
       </c>
-      <c r="J42" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" t="s">
+      <c r="K42" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B43" t="s">
         <v>40</v>
       </c>
-      <c r="B43" t="s">
-        <v>5</v>
-      </c>
       <c r="C43" t="s">
+        <v>5</v>
+      </c>
+      <c r="D43" t="s">
         <v>6</v>
       </c>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
       <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
         <v>65</v>
       </c>
-      <c r="F43" t="s">
-        <v>96</v>
-      </c>
       <c r="G43" t="s">
+        <v>96</v>
+      </c>
+      <c r="H43" t="s">
         <v>113</v>
       </c>
-      <c r="H43" t="s">
+      <c r="I43" t="s">
         <v>117</v>
       </c>
-      <c r="I43" t="s">
+      <c r="J43" t="s">
         <v>113</v>
       </c>
-      <c r="J43" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" t="s">
+      <c r="K43" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" t="s">
         <v>41</v>
       </c>
-      <c r="B44" t="s">
-        <v>5</v>
-      </c>
       <c r="C44" t="s">
+        <v>5</v>
+      </c>
+      <c r="D44" t="s">
         <v>6</v>
       </c>
-      <c r="D44" t="s">
-        <v>7</v>
-      </c>
       <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
         <v>66</v>
       </c>
-      <c r="F44" t="s">
-        <v>96</v>
-      </c>
       <c r="G44" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H44" t="s">
         <v>108</v>
@@ -2207,30 +2594,33 @@
         <v>108</v>
       </c>
       <c r="J44" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" t="s">
+        <v>108</v>
+      </c>
+      <c r="K44" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B45" t="s">
         <v>41</v>
       </c>
-      <c r="B45" t="s">
-        <v>5</v>
-      </c>
       <c r="C45" t="s">
+        <v>5</v>
+      </c>
+      <c r="D45" t="s">
         <v>8</v>
       </c>
-      <c r="D45" t="s">
-        <v>7</v>
-      </c>
       <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
         <v>66</v>
       </c>
-      <c r="F45" t="s">
-        <v>96</v>
-      </c>
       <c r="G45" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H45" t="s">
         <v>108</v>
@@ -2239,30 +2629,33 @@
         <v>108</v>
       </c>
       <c r="J45" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="K45" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" t="s">
         <v>42</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
       <c r="C46" t="s">
+        <v>5</v>
+      </c>
+      <c r="D46" t="s">
         <v>6</v>
       </c>
-      <c r="D46" t="s">
-        <v>7</v>
-      </c>
       <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
         <v>67</v>
       </c>
-      <c r="F46" t="s">
-        <v>96</v>
-      </c>
       <c r="G46" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H46" t="s">
         <v>108</v>
@@ -2271,30 +2664,33 @@
         <v>108</v>
       </c>
       <c r="J46" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" t="s">
+        <v>108</v>
+      </c>
+      <c r="K46" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B47" t="s">
         <v>42</v>
       </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
       <c r="C47" t="s">
+        <v>5</v>
+      </c>
+      <c r="D47" t="s">
         <v>8</v>
       </c>
-      <c r="D47" t="s">
-        <v>7</v>
-      </c>
       <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
         <v>67</v>
       </c>
-      <c r="F47" t="s">
-        <v>96</v>
-      </c>
       <c r="G47" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H47" t="s">
         <v>108</v>
@@ -2303,30 +2699,33 @@
         <v>108</v>
       </c>
       <c r="J47" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" t="s">
+        <v>108</v>
+      </c>
+      <c r="K47" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B48" t="s">
         <v>42</v>
       </c>
-      <c r="B48" t="s">
-        <v>5</v>
-      </c>
       <c r="C48" t="s">
+        <v>5</v>
+      </c>
+      <c r="D48" t="s">
         <v>9</v>
       </c>
-      <c r="D48" t="s">
-        <v>7</v>
-      </c>
       <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
         <v>67</v>
       </c>
-      <c r="F48" t="s">
-        <v>96</v>
-      </c>
       <c r="G48" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H48" t="s">
         <v>108</v>
@@ -2335,30 +2734,33 @@
         <v>108</v>
       </c>
       <c r="J48" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" t="s">
+        <v>108</v>
+      </c>
+      <c r="K48" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B49" t="s">
         <v>43</v>
       </c>
-      <c r="B49" t="s">
-        <v>5</v>
-      </c>
       <c r="C49" t="s">
+        <v>5</v>
+      </c>
+      <c r="D49" t="s">
         <v>6</v>
       </c>
-      <c r="D49" t="s">
-        <v>7</v>
-      </c>
       <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
         <v>68</v>
       </c>
-      <c r="F49" t="s">
-        <v>96</v>
-      </c>
       <c r="G49" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H49" t="s">
         <v>113</v>
@@ -2367,126 +2769,138 @@
         <v>113</v>
       </c>
       <c r="J49" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" t="s">
+        <v>113</v>
+      </c>
+      <c r="K49" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B50" t="s">
         <v>44</v>
       </c>
-      <c r="B50" t="s">
-        <v>5</v>
-      </c>
       <c r="C50" t="s">
+        <v>5</v>
+      </c>
+      <c r="D50" t="s">
         <v>6</v>
       </c>
-      <c r="D50" t="s">
-        <v>7</v>
-      </c>
       <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
         <v>69</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>101</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>102</v>
-      </c>
-      <c r="H50" t="s">
-        <v>104</v>
       </c>
       <c r="I50" t="s">
         <v>104</v>
       </c>
       <c r="J50" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="K50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B51" t="s">
         <v>44</v>
       </c>
-      <c r="B51" t="s">
-        <v>5</v>
-      </c>
       <c r="C51" t="s">
+        <v>5</v>
+      </c>
+      <c r="D51" t="s">
         <v>8</v>
       </c>
-      <c r="D51" t="s">
-        <v>7</v>
-      </c>
       <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
         <v>69</v>
       </c>
-      <c r="F51" t="s">
+      <c r="G51" t="s">
         <v>101</v>
       </c>
-      <c r="G51" t="s">
+      <c r="H51" t="s">
         <v>102</v>
-      </c>
-      <c r="H51" t="s">
-        <v>104</v>
       </c>
       <c r="I51" t="s">
         <v>104</v>
       </c>
       <c r="J51" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" t="s">
+        <v>104</v>
+      </c>
+      <c r="K51" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B52" t="s">
         <v>45</v>
       </c>
-      <c r="B52" t="s">
-        <v>5</v>
-      </c>
       <c r="C52" t="s">
+        <v>5</v>
+      </c>
+      <c r="D52" t="s">
         <v>6</v>
       </c>
-      <c r="D52" t="s">
-        <v>7</v>
-      </c>
       <c r="E52" t="s">
+        <v>7</v>
+      </c>
+      <c r="F52" t="s">
         <v>70</v>
       </c>
-      <c r="F52" t="s">
-        <v>96</v>
-      </c>
       <c r="G52" t="s">
+        <v>96</v>
+      </c>
+      <c r="H52" t="s">
         <v>97</v>
-      </c>
-      <c r="H52" t="s">
-        <v>120</v>
       </c>
       <c r="I52" t="s">
         <v>120</v>
       </c>
-      <c r="J52">
+      <c r="J52" t="s">
+        <v>120</v>
+      </c>
+      <c r="K52">
         <v>2</v>
       </c>
     </row>
-    <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" t="s">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B53" t="s">
         <v>46</v>
       </c>
-      <c r="B53" t="s">
-        <v>5</v>
-      </c>
       <c r="C53" t="s">
+        <v>5</v>
+      </c>
+      <c r="D53" t="s">
         <v>6</v>
       </c>
-      <c r="D53" t="s">
-        <v>7</v>
-      </c>
       <c r="E53" t="s">
+        <v>7</v>
+      </c>
+      <c r="F53" t="s">
         <v>71</v>
       </c>
-      <c r="F53" t="s">
-        <v>96</v>
-      </c>
       <c r="G53" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H53" t="s">
         <v>97</v>
@@ -2495,30 +2909,33 @@
         <v>97</v>
       </c>
       <c r="J53" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
+        <v>97</v>
+      </c>
+      <c r="K53" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B54" t="s">
         <v>47</v>
       </c>
-      <c r="B54" t="s">
-        <v>5</v>
-      </c>
       <c r="C54" t="s">
+        <v>5</v>
+      </c>
+      <c r="D54" t="s">
         <v>6</v>
       </c>
-      <c r="D54" t="s">
-        <v>7</v>
-      </c>
       <c r="E54" t="s">
+        <v>7</v>
+      </c>
+      <c r="F54" t="s">
         <v>75</v>
       </c>
-      <c r="F54" t="s">
-        <v>96</v>
-      </c>
       <c r="G54" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H54" t="s">
         <v>97</v>
@@ -2527,30 +2944,33 @@
         <v>97</v>
       </c>
       <c r="J54" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
+        <v>97</v>
+      </c>
+      <c r="K54" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B55" t="s">
         <v>47</v>
       </c>
-      <c r="B55" t="s">
-        <v>5</v>
-      </c>
       <c r="C55" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" t="s">
         <v>8</v>
       </c>
-      <c r="D55" t="s">
-        <v>7</v>
-      </c>
       <c r="E55" t="s">
+        <v>7</v>
+      </c>
+      <c r="F55" t="s">
         <v>72</v>
       </c>
-      <c r="F55" t="s">
-        <v>96</v>
-      </c>
       <c r="G55" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H55" t="s">
         <v>108</v>
@@ -2559,94 +2979,103 @@
         <v>108</v>
       </c>
       <c r="J55" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A56" t="s">
+        <v>108</v>
+      </c>
+      <c r="K55" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B56" t="s">
         <v>47</v>
       </c>
-      <c r="B56" t="s">
-        <v>5</v>
-      </c>
       <c r="C56" t="s">
+        <v>5</v>
+      </c>
+      <c r="D56" t="s">
         <v>9</v>
       </c>
-      <c r="D56" t="s">
-        <v>7</v>
-      </c>
       <c r="E56" t="s">
+        <v>7</v>
+      </c>
+      <c r="F56" t="s">
         <v>73</v>
       </c>
-      <c r="F56" t="s">
-        <v>96</v>
-      </c>
       <c r="G56" t="s">
+        <v>96</v>
+      </c>
+      <c r="H56" t="s">
         <v>110</v>
       </c>
-      <c r="H56" t="s">
+      <c r="I56" t="s">
         <v>111</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>112</v>
       </c>
-      <c r="J56" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A57" t="s">
+      <c r="K56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B57" t="s">
         <v>47</v>
       </c>
-      <c r="B57" t="s">
-        <v>5</v>
-      </c>
       <c r="C57" t="s">
+        <v>5</v>
+      </c>
+      <c r="D57" t="s">
         <v>34</v>
       </c>
-      <c r="D57" t="s">
-        <v>7</v>
-      </c>
       <c r="E57" t="s">
+        <v>7</v>
+      </c>
+      <c r="F57" t="s">
         <v>74</v>
       </c>
-      <c r="F57" t="s">
+      <c r="G57" t="s">
         <v>101</v>
       </c>
-      <c r="G57" t="s">
+      <c r="H57" t="s">
         <v>102</v>
-      </c>
-      <c r="H57" t="s">
-        <v>119</v>
       </c>
       <c r="I57" t="s">
         <v>119</v>
       </c>
       <c r="J57" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" t="s">
+        <v>119</v>
+      </c>
+      <c r="K57" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B58" t="s">
         <v>47</v>
       </c>
-      <c r="B58" t="s">
-        <v>5</v>
-      </c>
       <c r="C58" t="s">
+        <v>5</v>
+      </c>
+      <c r="D58" t="s">
         <v>35</v>
       </c>
-      <c r="D58" t="s">
-        <v>7</v>
-      </c>
       <c r="E58" t="s">
+        <v>7</v>
+      </c>
+      <c r="F58" t="s">
         <v>75</v>
       </c>
-      <c r="F58" t="s">
-        <v>96</v>
-      </c>
       <c r="G58" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H58" t="s">
         <v>97</v>
@@ -2655,158 +3084,173 @@
         <v>97</v>
       </c>
       <c r="J58" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" t="s">
+        <v>97</v>
+      </c>
+      <c r="K58" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B59" t="s">
         <v>48</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
       <c r="C59" t="s">
+        <v>5</v>
+      </c>
+      <c r="D59" t="s">
         <v>6</v>
       </c>
-      <c r="D59" t="s">
-        <v>7</v>
-      </c>
       <c r="E59" t="s">
+        <v>7</v>
+      </c>
+      <c r="F59" t="s">
         <v>76</v>
       </c>
-      <c r="F59" t="s">
+      <c r="G59" t="s">
         <v>101</v>
       </c>
-      <c r="G59" t="s">
+      <c r="H59" t="s">
         <v>102</v>
       </c>
-      <c r="H59" t="s">
+      <c r="I59" t="s">
         <v>114</v>
       </c>
-      <c r="I59" t="s">
+      <c r="J59" t="s">
         <v>115</v>
       </c>
-      <c r="J59" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" t="s">
+      <c r="K59" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="B60" t="s">
         <v>48</v>
       </c>
-      <c r="B60" t="s">
-        <v>5</v>
-      </c>
       <c r="C60" t="s">
+        <v>5</v>
+      </c>
+      <c r="D60" t="s">
         <v>8</v>
       </c>
-      <c r="D60" t="s">
-        <v>7</v>
-      </c>
       <c r="E60" t="s">
+        <v>7</v>
+      </c>
+      <c r="F60" t="s">
         <v>77</v>
       </c>
-      <c r="F60" t="s">
-        <v>96</v>
-      </c>
       <c r="G60" t="s">
+        <v>96</v>
+      </c>
+      <c r="H60" t="s">
         <v>110</v>
       </c>
-      <c r="H60" t="s">
+      <c r="I60" t="s">
         <v>111</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>112</v>
       </c>
-      <c r="J60" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
+      <c r="K60" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B61" t="s">
         <v>48</v>
       </c>
-      <c r="B61" t="s">
-        <v>5</v>
-      </c>
       <c r="C61" t="s">
+        <v>5</v>
+      </c>
+      <c r="D61" t="s">
         <v>9</v>
       </c>
-      <c r="D61" t="s">
-        <v>7</v>
-      </c>
       <c r="E61" t="s">
+        <v>7</v>
+      </c>
+      <c r="F61" t="s">
         <v>76</v>
       </c>
-      <c r="F61" t="s">
+      <c r="G61" t="s">
         <v>101</v>
       </c>
-      <c r="G61" t="s">
+      <c r="H61" t="s">
         <v>102</v>
       </c>
-      <c r="H61" t="s">
+      <c r="I61" t="s">
         <v>114</v>
       </c>
-      <c r="I61" t="s">
+      <c r="J61" t="s">
         <v>115</v>
       </c>
-      <c r="J61" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" t="s">
+      <c r="K61" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B62" t="s">
         <v>49</v>
       </c>
-      <c r="B62" t="s">
-        <v>5</v>
-      </c>
       <c r="C62" t="s">
+        <v>5</v>
+      </c>
+      <c r="D62" t="s">
         <v>6</v>
       </c>
-      <c r="D62" t="s">
-        <v>7</v>
-      </c>
       <c r="E62" t="s">
+        <v>7</v>
+      </c>
+      <c r="F62" t="s">
         <v>100</v>
       </c>
-      <c r="F62" t="s">
-        <v>96</v>
-      </c>
       <c r="G62" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" t="s">
         <v>110</v>
       </c>
-      <c r="H62" t="s">
+      <c r="I62" t="s">
         <v>79</v>
       </c>
-      <c r="I62" t="s">
+      <c r="J62" t="s">
         <v>98</v>
       </c>
-      <c r="J62" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" t="s">
+      <c r="K62" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B63" t="s">
         <v>49</v>
       </c>
-      <c r="B63" t="s">
-        <v>5</v>
-      </c>
       <c r="C63" t="s">
+        <v>5</v>
+      </c>
+      <c r="D63" t="s">
         <v>8</v>
       </c>
-      <c r="D63" t="s">
-        <v>7</v>
-      </c>
       <c r="E63" t="s">
+        <v>7</v>
+      </c>
+      <c r="F63" t="s">
         <v>78</v>
       </c>
-      <c r="F63" t="s">
-        <v>96</v>
-      </c>
       <c r="G63" t="s">
-        <v>113</v>
+        <v>96</v>
       </c>
       <c r="H63" t="s">
         <v>113</v>
@@ -2815,222 +3259,243 @@
         <v>113</v>
       </c>
       <c r="J63" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" t="s">
+        <v>113</v>
+      </c>
+      <c r="K63" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="B64" t="s">
         <v>49</v>
       </c>
-      <c r="B64" t="s">
-        <v>5</v>
-      </c>
       <c r="C64" t="s">
+        <v>5</v>
+      </c>
+      <c r="D64" t="s">
         <v>9</v>
       </c>
-      <c r="D64" t="s">
-        <v>7</v>
-      </c>
       <c r="E64" t="s">
+        <v>7</v>
+      </c>
+      <c r="F64" t="s">
         <v>79</v>
       </c>
-      <c r="F64" t="s">
-        <v>96</v>
-      </c>
       <c r="G64" t="s">
+        <v>96</v>
+      </c>
+      <c r="H64" t="s">
         <v>110</v>
       </c>
-      <c r="H64" t="s">
+      <c r="I64" t="s">
         <v>79</v>
       </c>
-      <c r="I64" t="s">
+      <c r="J64" t="s">
         <v>98</v>
       </c>
-      <c r="J64" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" t="s">
+      <c r="K64" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B65" t="s">
         <v>49</v>
       </c>
-      <c r="B65" t="s">
-        <v>5</v>
-      </c>
       <c r="C65" t="s">
+        <v>5</v>
+      </c>
+      <c r="D65" t="s">
         <v>34</v>
       </c>
-      <c r="D65" t="s">
-        <v>7</v>
-      </c>
       <c r="E65" t="s">
+        <v>7</v>
+      </c>
+      <c r="F65" t="s">
         <v>79</v>
       </c>
-      <c r="F65" t="s">
-        <v>96</v>
-      </c>
       <c r="G65" t="s">
+        <v>96</v>
+      </c>
+      <c r="H65" t="s">
         <v>110</v>
       </c>
-      <c r="H65" t="s">
+      <c r="I65" t="s">
         <v>79</v>
       </c>
-      <c r="I65" t="s">
+      <c r="J65" t="s">
         <v>98</v>
       </c>
-      <c r="J65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" t="s">
+      <c r="K65" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B66" t="s">
         <v>49</v>
       </c>
-      <c r="B66" t="s">
-        <v>5</v>
-      </c>
       <c r="C66" t="s">
+        <v>5</v>
+      </c>
+      <c r="D66" t="s">
         <v>35</v>
       </c>
-      <c r="D66" t="s">
-        <v>7</v>
-      </c>
       <c r="E66" t="s">
+        <v>7</v>
+      </c>
+      <c r="F66" t="s">
         <v>79</v>
       </c>
-      <c r="F66" t="s">
-        <v>96</v>
-      </c>
       <c r="G66" t="s">
+        <v>96</v>
+      </c>
+      <c r="H66" t="s">
         <v>110</v>
       </c>
-      <c r="H66" t="s">
+      <c r="I66" t="s">
         <v>79</v>
       </c>
-      <c r="I66" t="s">
+      <c r="J66" t="s">
         <v>98</v>
       </c>
-      <c r="J66" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" t="s">
+      <c r="K66" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B67" t="s">
         <v>49</v>
       </c>
-      <c r="B67" t="s">
-        <v>5</v>
-      </c>
       <c r="C67" t="s">
+        <v>5</v>
+      </c>
+      <c r="D67" t="s">
         <v>36</v>
       </c>
-      <c r="D67" t="s">
-        <v>7</v>
-      </c>
       <c r="E67" t="s">
+        <v>7</v>
+      </c>
+      <c r="F67" t="s">
         <v>79</v>
       </c>
-      <c r="F67" t="s">
-        <v>96</v>
-      </c>
       <c r="G67" t="s">
+        <v>96</v>
+      </c>
+      <c r="H67" t="s">
         <v>110</v>
       </c>
-      <c r="H67" t="s">
+      <c r="I67" t="s">
         <v>79</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>98</v>
       </c>
-      <c r="J67" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
+      <c r="K67" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B68" t="s">
         <v>49</v>
       </c>
-      <c r="B68" t="s">
-        <v>5</v>
-      </c>
       <c r="C68" t="s">
+        <v>5</v>
+      </c>
+      <c r="D68" t="s">
         <v>37</v>
       </c>
-      <c r="D68" t="s">
-        <v>7</v>
-      </c>
       <c r="E68" t="s">
+        <v>7</v>
+      </c>
+      <c r="F68" t="s">
         <v>79</v>
       </c>
-      <c r="F68" t="s">
-        <v>96</v>
-      </c>
       <c r="G68" t="s">
+        <v>96</v>
+      </c>
+      <c r="H68" t="s">
         <v>110</v>
       </c>
-      <c r="H68" t="s">
+      <c r="I68" t="s">
         <v>79</v>
       </c>
-      <c r="I68" t="s">
+      <c r="J68" t="s">
         <v>98</v>
       </c>
-      <c r="J68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" t="s">
+      <c r="K68" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B69" t="s">
         <v>49</v>
       </c>
-      <c r="B69" t="s">
-        <v>5</v>
-      </c>
       <c r="C69" t="s">
+        <v>5</v>
+      </c>
+      <c r="D69" t="s">
         <v>38</v>
       </c>
-      <c r="D69" t="s">
-        <v>7</v>
-      </c>
       <c r="E69" t="s">
+        <v>7</v>
+      </c>
+      <c r="F69" t="s">
         <v>79</v>
       </c>
-      <c r="F69" t="s">
-        <v>96</v>
-      </c>
       <c r="G69" t="s">
+        <v>96</v>
+      </c>
+      <c r="H69" t="s">
         <v>110</v>
       </c>
-      <c r="H69" t="s">
+      <c r="I69" t="s">
         <v>79</v>
       </c>
-      <c r="I69" t="s">
+      <c r="J69" t="s">
         <v>98</v>
       </c>
-      <c r="J69" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" t="s">
+      <c r="K69" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="B70" t="s">
         <v>50</v>
       </c>
-      <c r="B70" t="s">
-        <v>5</v>
-      </c>
       <c r="C70" t="s">
+        <v>5</v>
+      </c>
+      <c r="D70" t="s">
         <v>6</v>
       </c>
-      <c r="D70" t="s">
-        <v>7</v>
-      </c>
       <c r="E70" t="s">
+        <v>7</v>
+      </c>
+      <c r="F70" t="s">
         <v>80</v>
       </c>
-      <c r="F70" t="s">
-        <v>96</v>
-      </c>
       <c r="G70" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H70" t="s">
         <v>97</v>
@@ -3039,30 +3504,33 @@
         <v>97</v>
       </c>
       <c r="J70" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="K70" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B71" t="s">
         <v>50</v>
       </c>
-      <c r="B71" t="s">
-        <v>5</v>
-      </c>
       <c r="C71" t="s">
+        <v>5</v>
+      </c>
+      <c r="D71" t="s">
         <v>8</v>
       </c>
-      <c r="D71" t="s">
-        <v>7</v>
-      </c>
       <c r="E71" t="s">
+        <v>7</v>
+      </c>
+      <c r="F71" t="s">
         <v>80</v>
       </c>
-      <c r="F71" t="s">
-        <v>96</v>
-      </c>
       <c r="G71" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H71" t="s">
         <v>97</v>
@@ -3071,30 +3539,33 @@
         <v>97</v>
       </c>
       <c r="J71" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="72" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A72" t="s">
+        <v>97</v>
+      </c>
+      <c r="K71" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="B72" t="s">
         <v>50</v>
       </c>
-      <c r="B72" t="s">
-        <v>5</v>
-      </c>
       <c r="C72" t="s">
+        <v>5</v>
+      </c>
+      <c r="D72" t="s">
         <v>9</v>
       </c>
-      <c r="D72" t="s">
-        <v>7</v>
-      </c>
       <c r="E72" t="s">
+        <v>7</v>
+      </c>
+      <c r="F72" t="s">
         <v>81</v>
       </c>
-      <c r="F72" t="s">
-        <v>96</v>
-      </c>
       <c r="G72" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H72" t="s">
         <v>97</v>
@@ -3103,30 +3574,33 @@
         <v>97</v>
       </c>
       <c r="J72" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="73" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A73" t="s">
+        <v>97</v>
+      </c>
+      <c r="K72" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B73" t="s">
         <v>50</v>
       </c>
-      <c r="B73" t="s">
-        <v>5</v>
-      </c>
       <c r="C73" t="s">
+        <v>5</v>
+      </c>
+      <c r="D73" t="s">
         <v>34</v>
       </c>
-      <c r="D73" t="s">
-        <v>7</v>
-      </c>
       <c r="E73" t="s">
+        <v>7</v>
+      </c>
+      <c r="F73" t="s">
         <v>81</v>
       </c>
-      <c r="F73" t="s">
-        <v>96</v>
-      </c>
       <c r="G73" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H73" t="s">
         <v>97</v>
@@ -3135,414 +3609,453 @@
         <v>97</v>
       </c>
       <c r="J73" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="74" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A74" t="s">
+        <v>97</v>
+      </c>
+      <c r="K73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B74" t="s">
         <v>51</v>
       </c>
-      <c r="B74" t="s">
-        <v>5</v>
-      </c>
       <c r="C74" t="s">
+        <v>5</v>
+      </c>
+      <c r="D74" t="s">
         <v>6</v>
       </c>
-      <c r="D74" t="s">
-        <v>7</v>
-      </c>
       <c r="E74" t="s">
+        <v>7</v>
+      </c>
+      <c r="F74" t="s">
         <v>82</v>
       </c>
-      <c r="F74" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="G74" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H74" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I74" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I74" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="J74" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="75" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A75" t="s">
+        <v>108</v>
+      </c>
+      <c r="K74" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B75" t="s">
         <v>51</v>
       </c>
-      <c r="B75" t="s">
-        <v>5</v>
-      </c>
       <c r="C75" t="s">
+        <v>5</v>
+      </c>
+      <c r="D75" t="s">
         <v>21</v>
       </c>
-      <c r="D75" t="s">
-        <v>7</v>
-      </c>
       <c r="E75" t="s">
+        <v>7</v>
+      </c>
+      <c r="F75" t="s">
         <v>89</v>
       </c>
-      <c r="F75" t="s">
-        <v>96</v>
-      </c>
       <c r="G75" t="s">
+        <v>96</v>
+      </c>
+      <c r="H75" t="s">
         <v>110</v>
       </c>
-      <c r="H75" t="s">
+      <c r="I75" t="s">
         <v>111</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>112</v>
       </c>
-      <c r="J75" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="76" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A76" t="s">
+      <c r="K75" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B76" t="s">
         <v>51</v>
       </c>
-      <c r="B76" t="s">
-        <v>5</v>
-      </c>
       <c r="C76" t="s">
+        <v>5</v>
+      </c>
+      <c r="D76" t="s">
         <v>13</v>
       </c>
-      <c r="D76" t="s">
-        <v>7</v>
-      </c>
       <c r="E76" t="s">
+        <v>7</v>
+      </c>
+      <c r="F76" t="s">
         <v>89</v>
       </c>
-      <c r="F76" t="s">
-        <v>96</v>
-      </c>
       <c r="G76" t="s">
+        <v>96</v>
+      </c>
+      <c r="H76" t="s">
         <v>110</v>
       </c>
-      <c r="H76" t="s">
+      <c r="I76" t="s">
         <v>111</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>112</v>
       </c>
-      <c r="J76" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="77" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A77" t="s">
+      <c r="K76" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B77" t="s">
         <v>51</v>
       </c>
-      <c r="B77" t="s">
-        <v>5</v>
-      </c>
       <c r="C77" t="s">
+        <v>5</v>
+      </c>
+      <c r="D77" t="s">
         <v>14</v>
       </c>
-      <c r="D77" t="s">
-        <v>7</v>
-      </c>
       <c r="E77" t="s">
+        <v>7</v>
+      </c>
+      <c r="F77" t="s">
         <v>82</v>
       </c>
-      <c r="F77" s="5" t="s">
-        <v>96</v>
-      </c>
       <c r="G77" s="5" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H77" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>109</v>
       </c>
-      <c r="I77" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="J77" s="5" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A78" t="s">
+        <v>108</v>
+      </c>
+      <c r="K77" s="5" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="B78" t="s">
         <v>51</v>
       </c>
-      <c r="B78" t="s">
-        <v>5</v>
-      </c>
       <c r="C78" t="s">
+        <v>5</v>
+      </c>
+      <c r="D78" t="s">
         <v>15</v>
       </c>
-      <c r="D78" t="s">
-        <v>7</v>
-      </c>
       <c r="E78" t="s">
+        <v>7</v>
+      </c>
+      <c r="F78" t="s">
         <v>90</v>
       </c>
-      <c r="F78" t="s">
+      <c r="G78" t="s">
         <v>101</v>
       </c>
-      <c r="G78" t="s">
+      <c r="H78" t="s">
         <v>102</v>
-      </c>
-      <c r="H78" t="s">
-        <v>104</v>
       </c>
       <c r="I78" t="s">
         <v>104</v>
       </c>
       <c r="J78" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="79" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A79" t="s">
+        <v>104</v>
+      </c>
+      <c r="K78" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B79" t="s">
         <v>51</v>
       </c>
-      <c r="B79" t="s">
-        <v>5</v>
-      </c>
       <c r="C79" t="s">
+        <v>5</v>
+      </c>
+      <c r="D79" t="s">
         <v>8</v>
       </c>
-      <c r="D79" t="s">
-        <v>7</v>
-      </c>
       <c r="E79" t="s">
+        <v>7</v>
+      </c>
+      <c r="F79" t="s">
         <v>83</v>
       </c>
-      <c r="F79" t="s">
-        <v>96</v>
-      </c>
       <c r="G79" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H79" t="s">
+        <v>108</v>
+      </c>
+      <c r="I79" t="s">
         <v>109</v>
       </c>
-      <c r="I79" t="s">
-        <v>108</v>
-      </c>
       <c r="J79" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A80" t="s">
+        <v>108</v>
+      </c>
+      <c r="K79" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" t="s">
         <v>51</v>
       </c>
-      <c r="B80" t="s">
-        <v>5</v>
-      </c>
       <c r="C80" t="s">
+        <v>5</v>
+      </c>
+      <c r="D80" t="s">
         <v>9</v>
       </c>
-      <c r="D80" t="s">
-        <v>7</v>
-      </c>
       <c r="E80" t="s">
+        <v>7</v>
+      </c>
+      <c r="F80" t="s">
         <v>84</v>
       </c>
-      <c r="F80" t="s">
-        <v>96</v>
-      </c>
       <c r="G80" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H80" t="s">
+        <v>108</v>
+      </c>
+      <c r="I80" t="s">
         <v>109</v>
       </c>
-      <c r="I80" t="s">
-        <v>108</v>
-      </c>
       <c r="J80" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
+        <v>108</v>
+      </c>
+      <c r="K80" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" t="s">
         <v>51</v>
       </c>
-      <c r="B81" t="s">
-        <v>5</v>
-      </c>
       <c r="C81" t="s">
+        <v>5</v>
+      </c>
+      <c r="D81" t="s">
         <v>34</v>
       </c>
-      <c r="D81" t="s">
-        <v>7</v>
-      </c>
       <c r="E81" t="s">
+        <v>7</v>
+      </c>
+      <c r="F81" t="s">
         <v>85</v>
       </c>
-      <c r="F81" t="s">
+      <c r="G81" t="s">
         <v>101</v>
       </c>
-      <c r="G81" t="s">
+      <c r="H81" t="s">
         <v>102</v>
-      </c>
-      <c r="H81" t="s">
-        <v>104</v>
       </c>
       <c r="I81" t="s">
         <v>104</v>
       </c>
       <c r="J81" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A82" t="s">
+        <v>104</v>
+      </c>
+      <c r="K81" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" t="s">
         <v>51</v>
       </c>
-      <c r="B82" t="s">
-        <v>5</v>
-      </c>
       <c r="C82" t="s">
+        <v>5</v>
+      </c>
+      <c r="D82" t="s">
         <v>35</v>
       </c>
-      <c r="D82" t="s">
-        <v>7</v>
-      </c>
       <c r="E82" t="s">
+        <v>7</v>
+      </c>
+      <c r="F82" t="s">
         <v>86</v>
       </c>
-      <c r="F82" t="s">
+      <c r="G82" t="s">
         <v>101</v>
       </c>
-      <c r="G82" t="s">
+      <c r="H82" t="s">
         <v>102</v>
-      </c>
-      <c r="H82" t="s">
-        <v>107</v>
       </c>
       <c r="I82" t="s">
         <v>107</v>
       </c>
       <c r="J82" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="83" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A83" t="s">
+        <v>107</v>
+      </c>
+      <c r="K82" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B83" t="s">
         <v>51</v>
       </c>
-      <c r="B83" t="s">
-        <v>5</v>
-      </c>
       <c r="C83" t="s">
+        <v>5</v>
+      </c>
+      <c r="D83" t="s">
         <v>36</v>
       </c>
-      <c r="D83" t="s">
-        <v>7</v>
-      </c>
       <c r="E83" t="s">
+        <v>7</v>
+      </c>
+      <c r="F83" t="s">
         <v>87</v>
       </c>
-      <c r="F83" t="s">
+      <c r="G83" t="s">
         <v>101</v>
       </c>
-      <c r="G83" t="s">
+      <c r="H83" t="s">
         <v>102</v>
-      </c>
-      <c r="H83" t="s">
-        <v>103</v>
       </c>
       <c r="I83" t="s">
         <v>103</v>
       </c>
       <c r="J83" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="84" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
+        <v>103</v>
+      </c>
+      <c r="K83" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" t="s">
         <v>51</v>
       </c>
-      <c r="B84" t="s">
-        <v>5</v>
-      </c>
       <c r="C84" t="s">
+        <v>5</v>
+      </c>
+      <c r="D84" t="s">
         <v>37</v>
       </c>
-      <c r="D84" t="s">
-        <v>7</v>
-      </c>
       <c r="E84" t="s">
+        <v>7</v>
+      </c>
+      <c r="F84" t="s">
         <v>90</v>
       </c>
-      <c r="F84" t="s">
+      <c r="G84" t="s">
         <v>101</v>
       </c>
-      <c r="G84" t="s">
+      <c r="H84" t="s">
         <v>102</v>
-      </c>
-      <c r="H84" t="s">
-        <v>104</v>
       </c>
       <c r="I84" t="s">
         <v>104</v>
       </c>
       <c r="J84" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="85" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A85" t="s">
+        <v>104</v>
+      </c>
+      <c r="K84" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B85" t="s">
         <v>51</v>
       </c>
-      <c r="B85" t="s">
-        <v>5</v>
-      </c>
       <c r="C85" t="s">
+        <v>5</v>
+      </c>
+      <c r="D85" t="s">
         <v>38</v>
       </c>
-      <c r="D85" t="s">
-        <v>7</v>
-      </c>
       <c r="E85" t="s">
+        <v>7</v>
+      </c>
+      <c r="F85" t="s">
         <v>88</v>
       </c>
-      <c r="F85" t="s">
+      <c r="G85" t="s">
         <v>101</v>
       </c>
-      <c r="G85" t="s">
+      <c r="H85" t="s">
         <v>102</v>
       </c>
-      <c r="H85" t="s">
+      <c r="I85" t="s">
         <v>105</v>
       </c>
-      <c r="I85" t="s">
+      <c r="J85" t="s">
         <v>106</v>
       </c>
-      <c r="J85" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="86" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A86" t="s">
+      <c r="K85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B86" t="s">
         <v>51</v>
       </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
       <c r="C86" t="s">
+        <v>5</v>
+      </c>
+      <c r="D86" t="s">
         <v>39</v>
       </c>
-      <c r="D86" t="s">
-        <v>7</v>
-      </c>
       <c r="E86" t="s">
+        <v>7</v>
+      </c>
+      <c r="F86" t="s">
         <v>82</v>
       </c>
-      <c r="F86" t="s">
-        <v>96</v>
-      </c>
       <c r="G86" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="H86" t="s">
         <v>108</v>
@@ -3551,6 +4064,9 @@
         <v>108</v>
       </c>
       <c r="J86" t="s">
+        <v>108</v>
+      </c>
+      <c r="K86" t="s">
         <v>99</v>
       </c>
     </row>

--- a/data/misused_bar_graph_figures/nat_neurosci/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_neurosci/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_neurosci/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15E8D501-C7C5-7947-B32E-2B0E58B7D032}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9840BD7D-7592-A946-9A32-3D5CD0252365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19600" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1280" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="205">
   <si>
     <t>DOI</t>
   </si>
@@ -337,9 +337,6 @@
     <t>Time</t>
   </si>
   <si>
-    <t>Amplitude</t>
-  </si>
-  <si>
     <t>Potential</t>
   </si>
   <si>
@@ -361,9 +358,6 @@
     <t>Relative luminescence</t>
   </si>
   <si>
-    <t>Fraction</t>
-  </si>
-  <si>
     <t>Body mass</t>
   </si>
   <si>
@@ -373,9 +367,6 @@
     <t>Temperature</t>
   </si>
   <si>
-    <t>Probability</t>
-  </si>
-  <si>
     <t>Index</t>
   </si>
   <si>
@@ -641,6 +632,9 @@
   </si>
   <si>
     <t>10.1038:s41593-023-01499-x_zero_fig9</t>
+  </si>
+  <si>
+    <t>Others</t>
   </si>
 </sst>
 </file>
@@ -1051,18 +1045,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="213" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="G62" zoomScale="213" workbookViewId="0">
+      <selection activeCell="J74" sqref="J74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="34.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="18" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1097,7 +1095,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1118,13 +1116,13 @@
         <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K2" t="s">
         <v>99</v>
@@ -1132,7 +1130,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1153,13 +1151,13 @@
         <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K3" t="s">
         <v>99</v>
@@ -1167,7 +1165,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1188,13 +1186,13 @@
         <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K4" t="s">
         <v>99</v>
@@ -1202,7 +1200,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1223,13 +1221,13 @@
         <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K5" t="s">
         <v>99</v>
@@ -1237,7 +1235,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1258,13 +1256,13 @@
         <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K6" t="s">
         <v>99</v>
@@ -1272,7 +1270,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1296,10 +1294,10 @@
         <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J7" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K7" t="s">
         <v>99</v>
@@ -1307,7 +1305,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1331,10 +1329,10 @@
         <v>102</v>
       </c>
       <c r="I8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K8" t="s">
         <v>99</v>
@@ -1342,7 +1340,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1366,10 +1364,10 @@
         <v>102</v>
       </c>
       <c r="I9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K9" t="s">
         <v>99</v>
@@ -1377,7 +1375,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1401,10 +1399,10 @@
         <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K10" t="s">
         <v>99</v>
@@ -1412,7 +1410,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1436,10 +1434,10 @@
         <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
         <v>99</v>
@@ -1447,7 +1445,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1468,13 +1466,13 @@
         <v>96</v>
       </c>
       <c r="H12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J12" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K12" t="s">
         <v>99</v>
@@ -1482,7 +1480,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1503,13 +1501,13 @@
         <v>96</v>
       </c>
       <c r="H13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="J13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K13" t="s">
         <v>99</v>
@@ -1517,7 +1515,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1552,7 +1550,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1587,7 +1585,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1608,7 +1606,7 @@
         <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I16" t="s">
         <v>79</v>
@@ -1622,7 +1620,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -1643,7 +1641,7 @@
         <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I17" t="s">
         <v>79</v>
@@ -1657,7 +1655,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1678,7 +1676,7 @@
         <v>96</v>
       </c>
       <c r="H18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I18" t="s">
         <v>79</v>
@@ -1692,7 +1690,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1713,7 +1711,7 @@
         <v>96</v>
       </c>
       <c r="H19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I19" t="s">
         <v>79</v>
@@ -1727,7 +1725,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1748,7 +1746,7 @@
         <v>96</v>
       </c>
       <c r="H20" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I20" t="s">
         <v>79</v>
@@ -1762,7 +1760,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1783,7 +1781,7 @@
         <v>96</v>
       </c>
       <c r="H21" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I21" t="s">
         <v>79</v>
@@ -1797,7 +1795,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1818,7 +1816,7 @@
         <v>96</v>
       </c>
       <c r="H22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I22" t="s">
         <v>79</v>
@@ -1832,7 +1830,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1853,7 +1851,7 @@
         <v>96</v>
       </c>
       <c r="H23" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I23" t="s">
         <v>79</v>
@@ -1867,7 +1865,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1888,7 +1886,7 @@
         <v>96</v>
       </c>
       <c r="H24" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I24" t="s">
         <v>79</v>
@@ -1902,7 +1900,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1923,7 +1921,7 @@
         <v>96</v>
       </c>
       <c r="H25" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I25" t="s">
         <v>79</v>
@@ -1937,7 +1935,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1958,7 +1956,7 @@
         <v>96</v>
       </c>
       <c r="H26" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I26" t="s">
         <v>79</v>
@@ -1972,7 +1970,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1993,7 +1991,7 @@
         <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I27" t="s">
         <v>79</v>
@@ -2007,7 +2005,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -2028,7 +2026,7 @@
         <v>96</v>
       </c>
       <c r="H28" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I28" t="s">
         <v>79</v>
@@ -2042,7 +2040,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -2063,7 +2061,7 @@
         <v>96</v>
       </c>
       <c r="H29" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I29" t="s">
         <v>79</v>
@@ -2077,7 +2075,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -2098,7 +2096,7 @@
         <v>96</v>
       </c>
       <c r="H30" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I30" t="s">
         <v>79</v>
@@ -2112,7 +2110,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -2133,7 +2131,7 @@
         <v>96</v>
       </c>
       <c r="H31" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I31" t="s">
         <v>79</v>
@@ -2147,7 +2145,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -2168,7 +2166,7 @@
         <v>96</v>
       </c>
       <c r="H32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I32" t="s">
         <v>79</v>
@@ -2182,7 +2180,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
@@ -2203,7 +2201,7 @@
         <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I33" t="s">
         <v>79</v>
@@ -2217,7 +2215,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -2238,7 +2236,7 @@
         <v>96</v>
       </c>
       <c r="H34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I34" t="s">
         <v>79</v>
@@ -2252,7 +2250,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
@@ -2273,7 +2271,7 @@
         <v>96</v>
       </c>
       <c r="H35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I35" t="s">
         <v>79</v>
@@ -2287,7 +2285,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -2308,7 +2306,7 @@
         <v>96</v>
       </c>
       <c r="H36" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I36" t="s">
         <v>79</v>
@@ -2322,7 +2320,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -2343,7 +2341,7 @@
         <v>96</v>
       </c>
       <c r="H37" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I37" t="s">
         <v>79</v>
@@ -2357,7 +2355,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -2378,7 +2376,7 @@
         <v>96</v>
       </c>
       <c r="H38" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I38" t="s">
         <v>79</v>
@@ -2392,7 +2390,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -2413,7 +2411,7 @@
         <v>96</v>
       </c>
       <c r="H39" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I39" t="s">
         <v>79</v>
@@ -2427,7 +2425,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -2448,7 +2446,7 @@
         <v>96</v>
       </c>
       <c r="H40" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I40" t="s">
         <v>79</v>
@@ -2462,7 +2460,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -2483,7 +2481,7 @@
         <v>96</v>
       </c>
       <c r="H41" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I41" t="s">
         <v>79</v>
@@ -2497,7 +2495,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -2518,7 +2516,7 @@
         <v>96</v>
       </c>
       <c r="H42" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I42" t="s">
         <v>79</v>
@@ -2532,7 +2530,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
@@ -2553,13 +2551,13 @@
         <v>96</v>
       </c>
       <c r="H43" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I43" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="J43" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K43" t="s">
         <v>99</v>
@@ -2567,7 +2565,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
@@ -2588,13 +2586,13 @@
         <v>96</v>
       </c>
       <c r="H44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K44" t="s">
         <v>99</v>
@@ -2602,7 +2600,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
@@ -2623,13 +2621,13 @@
         <v>96</v>
       </c>
       <c r="H45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J45" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K45" t="s">
         <v>99</v>
@@ -2637,7 +2635,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
@@ -2658,13 +2656,13 @@
         <v>96</v>
       </c>
       <c r="H46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K46" t="s">
         <v>99</v>
@@ -2672,7 +2670,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
@@ -2693,13 +2691,13 @@
         <v>96</v>
       </c>
       <c r="H47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J47" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K47" t="s">
         <v>99</v>
@@ -2707,7 +2705,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
@@ -2728,13 +2726,13 @@
         <v>96</v>
       </c>
       <c r="H48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J48" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K48" t="s">
         <v>99</v>
@@ -2742,7 +2740,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -2763,13 +2761,13 @@
         <v>96</v>
       </c>
       <c r="H49" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I49" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J49" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K49" t="s">
         <v>99</v>
@@ -2777,7 +2775,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
@@ -2812,7 +2810,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
         <v>44</v>
@@ -2847,7 +2845,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B52" t="s">
         <v>45</v>
@@ -2871,10 +2869,10 @@
         <v>97</v>
       </c>
       <c r="I52" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="J52" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -2882,7 +2880,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B53" t="s">
         <v>46</v>
@@ -2917,7 +2915,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B54" t="s">
         <v>47</v>
@@ -2952,7 +2950,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B55" t="s">
         <v>47</v>
@@ -2973,13 +2971,13 @@
         <v>96</v>
       </c>
       <c r="H55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K55" t="s">
         <v>99</v>
@@ -2987,7 +2985,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B56" t="s">
         <v>47</v>
@@ -3008,13 +3006,13 @@
         <v>96</v>
       </c>
       <c r="H56" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56" t="s">
         <v>110</v>
       </c>
-      <c r="I56" t="s">
+      <c r="J56" t="s">
         <v>111</v>
-      </c>
-      <c r="J56" t="s">
-        <v>112</v>
       </c>
       <c r="K56" t="s">
         <v>99</v>
@@ -3022,7 +3020,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B57" t="s">
         <v>47</v>
@@ -3046,10 +3044,10 @@
         <v>102</v>
       </c>
       <c r="I57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="J57" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="K57" t="s">
         <v>99</v>
@@ -3057,7 +3055,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B58" t="s">
         <v>47</v>
@@ -3092,7 +3090,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B59" t="s">
         <v>48</v>
@@ -3116,10 +3114,10 @@
         <v>102</v>
       </c>
       <c r="I59" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K59" t="s">
         <v>99</v>
@@ -3127,7 +3125,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
@@ -3148,13 +3146,13 @@
         <v>96</v>
       </c>
       <c r="H60" t="s">
+        <v>109</v>
+      </c>
+      <c r="I60" t="s">
         <v>110</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>111</v>
-      </c>
-      <c r="J60" t="s">
-        <v>112</v>
       </c>
       <c r="K60" t="s">
         <v>99</v>
@@ -3162,7 +3160,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B61" t="s">
         <v>48</v>
@@ -3186,10 +3184,10 @@
         <v>102</v>
       </c>
       <c r="I61" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J61" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K61" t="s">
         <v>99</v>
@@ -3197,7 +3195,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B62" t="s">
         <v>49</v>
@@ -3218,7 +3216,7 @@
         <v>96</v>
       </c>
       <c r="H62" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I62" t="s">
         <v>79</v>
@@ -3232,7 +3230,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B63" t="s">
         <v>49</v>
@@ -3253,13 +3251,13 @@
         <v>96</v>
       </c>
       <c r="H63" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="I63" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="J63" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="K63" t="s">
         <v>99</v>
@@ -3267,7 +3265,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B64" t="s">
         <v>49</v>
@@ -3288,7 +3286,7 @@
         <v>96</v>
       </c>
       <c r="H64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I64" t="s">
         <v>79</v>
@@ -3302,7 +3300,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B65" t="s">
         <v>49</v>
@@ -3323,7 +3321,7 @@
         <v>96</v>
       </c>
       <c r="H65" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I65" t="s">
         <v>79</v>
@@ -3337,7 +3335,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B66" t="s">
         <v>49</v>
@@ -3358,7 +3356,7 @@
         <v>96</v>
       </c>
       <c r="H66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I66" t="s">
         <v>79</v>
@@ -3372,7 +3370,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B67" t="s">
         <v>49</v>
@@ -3393,7 +3391,7 @@
         <v>96</v>
       </c>
       <c r="H67" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I67" t="s">
         <v>79</v>
@@ -3407,7 +3405,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B68" t="s">
         <v>49</v>
@@ -3428,7 +3426,7 @@
         <v>96</v>
       </c>
       <c r="H68" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I68" t="s">
         <v>79</v>
@@ -3442,7 +3440,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B69" t="s">
         <v>49</v>
@@ -3463,7 +3461,7 @@
         <v>96</v>
       </c>
       <c r="H69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="I69" t="s">
         <v>79</v>
@@ -3477,7 +3475,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B70" t="s">
         <v>50</v>
@@ -3512,7 +3510,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B71" t="s">
         <v>50</v>
@@ -3547,7 +3545,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B72" t="s">
         <v>50</v>
@@ -3582,7 +3580,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B73" t="s">
         <v>50</v>
@@ -3617,7 +3615,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B74" t="s">
         <v>51</v>
@@ -3638,13 +3636,13 @@
         <v>96</v>
       </c>
       <c r="H74" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I74" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I74" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="J74" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>99</v>
@@ -3652,7 +3650,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B75" t="s">
         <v>51</v>
@@ -3673,13 +3671,13 @@
         <v>96</v>
       </c>
       <c r="H75" t="s">
+        <v>109</v>
+      </c>
+      <c r="I75" t="s">
         <v>110</v>
       </c>
-      <c r="I75" t="s">
+      <c r="J75" t="s">
         <v>111</v>
-      </c>
-      <c r="J75" t="s">
-        <v>112</v>
       </c>
       <c r="K75" t="s">
         <v>99</v>
@@ -3687,7 +3685,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B76" t="s">
         <v>51</v>
@@ -3708,13 +3706,13 @@
         <v>96</v>
       </c>
       <c r="H76" t="s">
+        <v>109</v>
+      </c>
+      <c r="I76" t="s">
         <v>110</v>
       </c>
-      <c r="I76" t="s">
+      <c r="J76" t="s">
         <v>111</v>
-      </c>
-      <c r="J76" t="s">
-        <v>112</v>
       </c>
       <c r="K76" t="s">
         <v>99</v>
@@ -3722,7 +3720,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B77" t="s">
         <v>51</v>
@@ -3743,13 +3741,13 @@
         <v>96</v>
       </c>
       <c r="H77" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>108</v>
       </c>
-      <c r="I77" s="5" t="s">
-        <v>109</v>
-      </c>
       <c r="J77" s="5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>99</v>
@@ -3757,7 +3755,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B78" t="s">
         <v>51</v>
@@ -3792,7 +3790,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B79" t="s">
         <v>51</v>
@@ -3813,13 +3811,13 @@
         <v>96</v>
       </c>
       <c r="H79" t="s">
+        <v>107</v>
+      </c>
+      <c r="I79" t="s">
         <v>108</v>
       </c>
-      <c r="I79" t="s">
-        <v>109</v>
-      </c>
       <c r="J79" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K79" t="s">
         <v>99</v>
@@ -3827,7 +3825,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B80" t="s">
         <v>51</v>
@@ -3848,13 +3846,13 @@
         <v>96</v>
       </c>
       <c r="H80" t="s">
+        <v>107</v>
+      </c>
+      <c r="I80" t="s">
         <v>108</v>
       </c>
-      <c r="I80" t="s">
-        <v>109</v>
-      </c>
       <c r="J80" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K80" t="s">
         <v>99</v>
@@ -3862,7 +3860,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B81" t="s">
         <v>51</v>
@@ -3897,7 +3895,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B82" t="s">
         <v>51</v>
@@ -3921,10 +3919,10 @@
         <v>102</v>
       </c>
       <c r="I82" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J82" t="s">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="K82" t="s">
         <v>99</v>
@@ -3932,7 +3930,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B83" t="s">
         <v>51</v>
@@ -3967,7 +3965,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="B84" t="s">
         <v>51</v>
@@ -4002,7 +4000,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="B85" t="s">
         <v>51</v>
@@ -4029,7 +4027,7 @@
         <v>105</v>
       </c>
       <c r="J85" t="s">
-        <v>106</v>
+        <v>204</v>
       </c>
       <c r="K85" t="s">
         <v>99</v>
@@ -4037,7 +4035,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="B86" t="s">
         <v>51</v>
@@ -4058,13 +4056,13 @@
         <v>96</v>
       </c>
       <c r="H86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="I86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J86" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K86" t="s">
         <v>99</v>

--- a/data/misused_bar_graph_figures/nat_neurosci/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_neurosci/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_neurosci/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9840BD7D-7592-A946-9A32-3D5CD0252365}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69376DF8-5C96-BF43-BCC7-FF6D771F080E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1280" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1045,8 +1045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G62" zoomScale="213" workbookViewId="0">
-      <selection activeCell="J74" sqref="J74"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="213" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56:J56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3009,10 +3009,10 @@
         <v>109</v>
       </c>
       <c r="I56" t="s">
+        <v>111</v>
+      </c>
+      <c r="J56" t="s">
         <v>110</v>
-      </c>
-      <c r="J56" t="s">
-        <v>111</v>
       </c>
       <c r="K56" t="s">
         <v>99</v>
@@ -3149,10 +3149,10 @@
         <v>109</v>
       </c>
       <c r="I60" t="s">
+        <v>111</v>
+      </c>
+      <c r="J60" t="s">
         <v>110</v>
-      </c>
-      <c r="J60" t="s">
-        <v>111</v>
       </c>
       <c r="K60" t="s">
         <v>99</v>
@@ -3674,10 +3674,10 @@
         <v>109</v>
       </c>
       <c r="I75" t="s">
+        <v>111</v>
+      </c>
+      <c r="J75" t="s">
         <v>110</v>
-      </c>
-      <c r="J75" t="s">
-        <v>111</v>
       </c>
       <c r="K75" t="s">
         <v>99</v>
@@ -3709,10 +3709,10 @@
         <v>109</v>
       </c>
       <c r="I76" t="s">
+        <v>111</v>
+      </c>
+      <c r="J76" t="s">
         <v>110</v>
-      </c>
-      <c r="J76" t="s">
-        <v>111</v>
       </c>
       <c r="K76" t="s">
         <v>99</v>

--- a/data/misused_bar_graph_figures/nat_neurosci/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_neurosci/zero/annotation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_neurosci/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69376DF8-5C96-BF43-BCC7-FF6D771F080E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFFE41F-CC8A-EE47-9611-4BD2ADAA665B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="945" uniqueCount="202">
   <si>
     <t>DOI</t>
   </si>
@@ -340,9 +340,6 @@
     <t>Potential</t>
   </si>
   <si>
-    <t>Rate</t>
-  </si>
-  <si>
     <t>Percentage</t>
   </si>
   <si>
@@ -358,9 +355,6 @@
     <t>Relative luminescence</t>
   </si>
   <si>
-    <t>Body mass</t>
-  </si>
-  <si>
     <t>Mass</t>
   </si>
   <si>
@@ -371,9 +365,6 @@
   </si>
   <si>
     <t>Constant</t>
-  </si>
-  <si>
-    <t>Relative expression</t>
   </si>
   <si>
     <t>Fig Index</t>
@@ -1045,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="213" workbookViewId="0">
-      <selection activeCell="I56" sqref="I56:J56"/>
+    <sheetView tabSelected="1" topLeftCell="F61" zoomScale="213" workbookViewId="0">
+      <selection activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1060,7 +1051,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1095,7 +1086,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1116,13 +1107,13 @@
         <v>96</v>
       </c>
       <c r="H2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K2" t="s">
         <v>99</v>
@@ -1130,7 +1121,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1151,13 +1142,13 @@
         <v>96</v>
       </c>
       <c r="H3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K3" t="s">
         <v>99</v>
@@ -1165,7 +1156,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1186,13 +1177,13 @@
         <v>96</v>
       </c>
       <c r="H4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K4" t="s">
         <v>99</v>
@@ -1200,7 +1191,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1221,13 +1212,13 @@
         <v>96</v>
       </c>
       <c r="H5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K5" t="s">
         <v>99</v>
@@ -1235,7 +1226,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1256,13 +1247,13 @@
         <v>96</v>
       </c>
       <c r="H6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s">
         <v>99</v>
@@ -1270,7 +1261,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1294,10 +1285,10 @@
         <v>102</v>
       </c>
       <c r="I7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J7" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K7" t="s">
         <v>99</v>
@@ -1305,7 +1296,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1329,10 +1320,10 @@
         <v>102</v>
       </c>
       <c r="I8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J8" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K8" t="s">
         <v>99</v>
@@ -1340,7 +1331,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1364,10 +1355,10 @@
         <v>102</v>
       </c>
       <c r="I9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J9" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K9" t="s">
         <v>99</v>
@@ -1375,7 +1366,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1399,10 +1390,10 @@
         <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="J10" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K10" t="s">
         <v>99</v>
@@ -1410,7 +1401,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1434,10 +1425,10 @@
         <v>102</v>
       </c>
       <c r="I11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
         <v>99</v>
@@ -1445,7 +1436,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1466,13 +1457,13 @@
         <v>96</v>
       </c>
       <c r="H12" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K12" t="s">
         <v>99</v>
@@ -1480,7 +1471,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1501,13 +1492,13 @@
         <v>96</v>
       </c>
       <c r="H13" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I13" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="J13" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K13" t="s">
         <v>99</v>
@@ -1515,7 +1506,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1550,7 +1541,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1585,7 +1576,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1606,7 +1597,7 @@
         <v>96</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I16" t="s">
         <v>79</v>
@@ -1620,7 +1611,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -1641,7 +1632,7 @@
         <v>96</v>
       </c>
       <c r="H17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I17" t="s">
         <v>79</v>
@@ -1655,7 +1646,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1676,7 +1667,7 @@
         <v>96</v>
       </c>
       <c r="H18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I18" t="s">
         <v>79</v>
@@ -1690,7 +1681,7 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1711,7 +1702,7 @@
         <v>96</v>
       </c>
       <c r="H19" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I19" t="s">
         <v>79</v>
@@ -1725,7 +1716,7 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1746,7 +1737,7 @@
         <v>96</v>
       </c>
       <c r="H20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I20" t="s">
         <v>79</v>
@@ -1760,7 +1751,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1781,7 +1772,7 @@
         <v>96</v>
       </c>
       <c r="H21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I21" t="s">
         <v>79</v>
@@ -1795,7 +1786,7 @@
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1816,7 +1807,7 @@
         <v>96</v>
       </c>
       <c r="H22" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I22" t="s">
         <v>79</v>
@@ -1830,7 +1821,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1851,7 +1842,7 @@
         <v>96</v>
       </c>
       <c r="H23" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I23" t="s">
         <v>79</v>
@@ -1865,7 +1856,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1886,7 +1877,7 @@
         <v>96</v>
       </c>
       <c r="H24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I24" t="s">
         <v>79</v>
@@ -1900,7 +1891,7 @@
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1921,7 +1912,7 @@
         <v>96</v>
       </c>
       <c r="H25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I25" t="s">
         <v>79</v>
@@ -1935,7 +1926,7 @@
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1956,7 +1947,7 @@
         <v>96</v>
       </c>
       <c r="H26" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I26" t="s">
         <v>79</v>
@@ -1970,7 +1961,7 @@
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1991,7 +1982,7 @@
         <v>96</v>
       </c>
       <c r="H27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I27" t="s">
         <v>79</v>
@@ -2005,7 +1996,7 @@
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -2026,7 +2017,7 @@
         <v>96</v>
       </c>
       <c r="H28" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I28" t="s">
         <v>79</v>
@@ -2040,7 +2031,7 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -2061,7 +2052,7 @@
         <v>96</v>
       </c>
       <c r="H29" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I29" t="s">
         <v>79</v>
@@ -2075,7 +2066,7 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -2096,7 +2087,7 @@
         <v>96</v>
       </c>
       <c r="H30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I30" t="s">
         <v>79</v>
@@ -2110,7 +2101,7 @@
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -2131,7 +2122,7 @@
         <v>96</v>
       </c>
       <c r="H31" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I31" t="s">
         <v>79</v>
@@ -2145,7 +2136,7 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -2166,7 +2157,7 @@
         <v>96</v>
       </c>
       <c r="H32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I32" t="s">
         <v>79</v>
@@ -2180,7 +2171,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
@@ -2201,7 +2192,7 @@
         <v>96</v>
       </c>
       <c r="H33" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I33" t="s">
         <v>79</v>
@@ -2215,7 +2206,7 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -2236,7 +2227,7 @@
         <v>96</v>
       </c>
       <c r="H34" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I34" t="s">
         <v>79</v>
@@ -2250,7 +2241,7 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
@@ -2271,7 +2262,7 @@
         <v>96</v>
       </c>
       <c r="H35" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I35" t="s">
         <v>79</v>
@@ -2285,7 +2276,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -2306,7 +2297,7 @@
         <v>96</v>
       </c>
       <c r="H36" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I36" t="s">
         <v>79</v>
@@ -2320,7 +2311,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -2341,7 +2332,7 @@
         <v>96</v>
       </c>
       <c r="H37" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I37" t="s">
         <v>79</v>
@@ -2355,7 +2346,7 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -2376,7 +2367,7 @@
         <v>96</v>
       </c>
       <c r="H38" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I38" t="s">
         <v>79</v>
@@ -2390,7 +2381,7 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -2411,7 +2402,7 @@
         <v>96</v>
       </c>
       <c r="H39" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I39" t="s">
         <v>79</v>
@@ -2425,7 +2416,7 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -2446,7 +2437,7 @@
         <v>96</v>
       </c>
       <c r="H40" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I40" t="s">
         <v>79</v>
@@ -2460,7 +2451,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -2481,7 +2472,7 @@
         <v>96</v>
       </c>
       <c r="H41" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I41" t="s">
         <v>79</v>
@@ -2495,7 +2486,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -2516,7 +2507,7 @@
         <v>96</v>
       </c>
       <c r="H42" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I42" t="s">
         <v>79</v>
@@ -2530,7 +2521,7 @@
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
@@ -2551,13 +2542,13 @@
         <v>96</v>
       </c>
       <c r="H43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J43" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K43" t="s">
         <v>99</v>
@@ -2565,7 +2556,7 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
@@ -2586,13 +2577,13 @@
         <v>96</v>
       </c>
       <c r="H44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J44" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K44" t="s">
         <v>99</v>
@@ -2600,7 +2591,7 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
@@ -2621,13 +2612,13 @@
         <v>96</v>
       </c>
       <c r="H45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J45" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K45" t="s">
         <v>99</v>
@@ -2635,7 +2626,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
@@ -2656,13 +2647,13 @@
         <v>96</v>
       </c>
       <c r="H46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J46" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K46" t="s">
         <v>99</v>
@@ -2670,7 +2661,7 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
@@ -2691,13 +2682,13 @@
         <v>96</v>
       </c>
       <c r="H47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J47" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K47" t="s">
         <v>99</v>
@@ -2705,7 +2696,7 @@
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
@@ -2726,13 +2717,13 @@
         <v>96</v>
       </c>
       <c r="H48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J48" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K48" t="s">
         <v>99</v>
@@ -2740,7 +2731,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -2761,13 +2752,13 @@
         <v>96</v>
       </c>
       <c r="H49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J49" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K49" t="s">
         <v>99</v>
@@ -2775,7 +2766,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
@@ -2810,7 +2801,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B51" t="s">
         <v>44</v>
@@ -2845,7 +2836,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B52" t="s">
         <v>45</v>
@@ -2869,10 +2860,10 @@
         <v>97</v>
       </c>
       <c r="I52" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="J52" t="s">
-        <v>117</v>
+        <v>97</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -2880,7 +2871,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B53" t="s">
         <v>46</v>
@@ -2915,7 +2906,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B54" t="s">
         <v>47</v>
@@ -2950,7 +2941,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B55" t="s">
         <v>47</v>
@@ -2971,13 +2962,13 @@
         <v>96</v>
       </c>
       <c r="H55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J55" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K55" t="s">
         <v>99</v>
@@ -2985,7 +2976,7 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B56" t="s">
         <v>47</v>
@@ -3006,13 +2997,13 @@
         <v>96</v>
       </c>
       <c r="H56" t="s">
+        <v>108</v>
+      </c>
+      <c r="I56" t="s">
+        <v>110</v>
+      </c>
+      <c r="J56" t="s">
         <v>109</v>
-      </c>
-      <c r="I56" t="s">
-        <v>111</v>
-      </c>
-      <c r="J56" t="s">
-        <v>110</v>
       </c>
       <c r="K56" t="s">
         <v>99</v>
@@ -3020,7 +3011,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B57" t="s">
         <v>47</v>
@@ -3044,10 +3035,10 @@
         <v>102</v>
       </c>
       <c r="I57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="J57" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K57" t="s">
         <v>99</v>
@@ -3055,7 +3046,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B58" t="s">
         <v>47</v>
@@ -3090,7 +3081,7 @@
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B59" t="s">
         <v>48</v>
@@ -3114,10 +3105,10 @@
         <v>102</v>
       </c>
       <c r="I59" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J59" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K59" t="s">
         <v>99</v>
@@ -3125,7 +3116,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
@@ -3146,13 +3137,13 @@
         <v>96</v>
       </c>
       <c r="H60" t="s">
+        <v>108</v>
+      </c>
+      <c r="I60" t="s">
+        <v>110</v>
+      </c>
+      <c r="J60" t="s">
         <v>109</v>
-      </c>
-      <c r="I60" t="s">
-        <v>111</v>
-      </c>
-      <c r="J60" t="s">
-        <v>110</v>
       </c>
       <c r="K60" t="s">
         <v>99</v>
@@ -3160,7 +3151,7 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B61" t="s">
         <v>48</v>
@@ -3184,10 +3175,10 @@
         <v>102</v>
       </c>
       <c r="I61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="J61" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K61" t="s">
         <v>99</v>
@@ -3195,7 +3186,7 @@
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B62" t="s">
         <v>49</v>
@@ -3216,7 +3207,7 @@
         <v>96</v>
       </c>
       <c r="H62" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I62" t="s">
         <v>79</v>
@@ -3230,7 +3221,7 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B63" t="s">
         <v>49</v>
@@ -3251,13 +3242,13 @@
         <v>96</v>
       </c>
       <c r="H63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J63" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K63" t="s">
         <v>99</v>
@@ -3265,7 +3256,7 @@
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B64" t="s">
         <v>49</v>
@@ -3286,7 +3277,7 @@
         <v>96</v>
       </c>
       <c r="H64" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I64" t="s">
         <v>79</v>
@@ -3300,7 +3291,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B65" t="s">
         <v>49</v>
@@ -3321,7 +3312,7 @@
         <v>96</v>
       </c>
       <c r="H65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I65" t="s">
         <v>79</v>
@@ -3335,7 +3326,7 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
         <v>49</v>
@@ -3356,7 +3347,7 @@
         <v>96</v>
       </c>
       <c r="H66" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I66" t="s">
         <v>79</v>
@@ -3370,7 +3361,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B67" t="s">
         <v>49</v>
@@ -3391,7 +3382,7 @@
         <v>96</v>
       </c>
       <c r="H67" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I67" t="s">
         <v>79</v>
@@ -3405,7 +3396,7 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B68" t="s">
         <v>49</v>
@@ -3426,7 +3417,7 @@
         <v>96</v>
       </c>
       <c r="H68" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I68" t="s">
         <v>79</v>
@@ -3440,7 +3431,7 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B69" t="s">
         <v>49</v>
@@ -3461,7 +3452,7 @@
         <v>96</v>
       </c>
       <c r="H69" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="I69" t="s">
         <v>79</v>
@@ -3475,7 +3466,7 @@
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B70" t="s">
         <v>50</v>
@@ -3510,7 +3501,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B71" t="s">
         <v>50</v>
@@ -3545,7 +3536,7 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B72" t="s">
         <v>50</v>
@@ -3580,7 +3571,7 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B73" t="s">
         <v>50</v>
@@ -3615,7 +3606,7 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B74" t="s">
         <v>51</v>
@@ -3636,13 +3627,13 @@
         <v>96</v>
       </c>
       <c r="H74" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I74" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I74" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="J74" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K74" s="5" t="s">
         <v>99</v>
@@ -3650,7 +3641,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B75" t="s">
         <v>51</v>
@@ -3671,13 +3662,13 @@
         <v>96</v>
       </c>
       <c r="H75" t="s">
+        <v>108</v>
+      </c>
+      <c r="I75" t="s">
+        <v>110</v>
+      </c>
+      <c r="J75" t="s">
         <v>109</v>
-      </c>
-      <c r="I75" t="s">
-        <v>111</v>
-      </c>
-      <c r="J75" t="s">
-        <v>110</v>
       </c>
       <c r="K75" t="s">
         <v>99</v>
@@ -3685,7 +3676,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B76" t="s">
         <v>51</v>
@@ -3706,13 +3697,13 @@
         <v>96</v>
       </c>
       <c r="H76" t="s">
+        <v>108</v>
+      </c>
+      <c r="I76" t="s">
+        <v>110</v>
+      </c>
+      <c r="J76" t="s">
         <v>109</v>
-      </c>
-      <c r="I76" t="s">
-        <v>111</v>
-      </c>
-      <c r="J76" t="s">
-        <v>110</v>
       </c>
       <c r="K76" t="s">
         <v>99</v>
@@ -3720,7 +3711,7 @@
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B77" t="s">
         <v>51</v>
@@ -3741,13 +3732,13 @@
         <v>96</v>
       </c>
       <c r="H77" s="5" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="I77" s="5" t="s">
-        <v>108</v>
-      </c>
       <c r="J77" s="5" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K77" s="5" t="s">
         <v>99</v>
@@ -3755,7 +3746,7 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B78" t="s">
         <v>51</v>
@@ -3790,7 +3781,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B79" t="s">
         <v>51</v>
@@ -3811,13 +3802,13 @@
         <v>96</v>
       </c>
       <c r="H79" t="s">
+        <v>106</v>
+      </c>
+      <c r="I79" t="s">
         <v>107</v>
       </c>
-      <c r="I79" t="s">
-        <v>108</v>
-      </c>
       <c r="J79" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K79" t="s">
         <v>99</v>
@@ -3825,7 +3816,7 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B80" t="s">
         <v>51</v>
@@ -3846,13 +3837,13 @@
         <v>96</v>
       </c>
       <c r="H80" t="s">
+        <v>106</v>
+      </c>
+      <c r="I80" t="s">
         <v>107</v>
       </c>
-      <c r="I80" t="s">
-        <v>108</v>
-      </c>
       <c r="J80" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K80" t="s">
         <v>99</v>
@@ -3860,7 +3851,7 @@
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B81" t="s">
         <v>51</v>
@@ -3895,7 +3886,7 @@
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B82" t="s">
         <v>51</v>
@@ -3919,10 +3910,10 @@
         <v>102</v>
       </c>
       <c r="I82" t="s">
-        <v>106</v>
+        <v>201</v>
       </c>
       <c r="J82" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K82" t="s">
         <v>99</v>
@@ -3930,7 +3921,7 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B83" t="s">
         <v>51</v>
@@ -3965,7 +3956,7 @@
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="B84" t="s">
         <v>51</v>
@@ -4000,7 +3991,7 @@
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="B85" t="s">
         <v>51</v>
@@ -4027,7 +4018,7 @@
         <v>105</v>
       </c>
       <c r="J85" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="K85" t="s">
         <v>99</v>
@@ -4035,7 +4026,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="B86" t="s">
         <v>51</v>
@@ -4056,13 +4047,13 @@
         <v>96</v>
       </c>
       <c r="H86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="I86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="J86" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K86" t="s">
         <v>99</v>

--- a/data/misused_bar_graph_figures/nat_neurosci/zero/annotation.xlsx
+++ b/data/misused_bar_graph_figures/nat_neurosci/zero/annotation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tlin/Files/2023-2028-UC_Berkeley/_landry-lab/research-project/local/misused-bar-graphs/data/misused_bar_graph_figures/nat_neurosci/zero/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DFFE41F-CC8A-EE47-9611-4BD2ADAA665B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C29F74BC-1FC0-244C-8A3C-0D989159B48F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="800" yWindow="500" windowWidth="18800" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -178,9 +178,6 @@
     <t>10.1038:s41593-023-01499-x</t>
   </si>
   <si>
-    <t>Quantity</t>
-  </si>
-  <si>
     <t>Performance</t>
   </si>
   <si>
@@ -301,12 +298,6 @@
     <t>Measurement Type</t>
   </si>
   <si>
-    <t>Physical quantity I</t>
-  </si>
-  <si>
-    <t>Physical quantity II</t>
-  </si>
-  <si>
     <t>Log transformation</t>
   </si>
   <si>
@@ -626,6 +617,15 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Measurand</t>
+  </si>
+  <si>
+    <t>Measurand Level I</t>
+  </si>
+  <si>
+    <t>Measurand Level II</t>
   </si>
 </sst>
 </file>
@@ -1036,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F61" zoomScale="213" workbookViewId="0">
-      <selection activeCell="I82" sqref="I82"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="213" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1051,7 +1051,7 @@
   <sheetData>
     <row r="1" spans="1:11" ht="48" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1066,27 +1066,27 @@
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>52</v>
+        <v>199</v>
       </c>
       <c r="G1" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" s="3" t="s">
         <v>91</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="I1" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="K1" s="4" t="s">
         <v>92</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
@@ -1101,27 +1101,27 @@
         <v>7</v>
       </c>
       <c r="F2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B3" t="s">
         <v>4</v>
@@ -1136,27 +1136,27 @@
         <v>7</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G3" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J3" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
@@ -1171,27 +1171,27 @@
         <v>7</v>
       </c>
       <c r="F4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G4" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J4" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K4" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B5" t="s">
         <v>10</v>
@@ -1206,27 +1206,27 @@
         <v>7</v>
       </c>
       <c r="F5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B6" t="s">
         <v>11</v>
@@ -1241,27 +1241,27 @@
         <v>7</v>
       </c>
       <c r="F6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J6" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K6" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="B7" t="s">
         <v>12</v>
@@ -1276,27 +1276,27 @@
         <v>7</v>
       </c>
       <c r="F7" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B8" t="s">
         <v>12</v>
@@ -1311,27 +1311,27 @@
         <v>7</v>
       </c>
       <c r="F8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J8" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K8" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B9" t="s">
         <v>12</v>
@@ -1346,27 +1346,27 @@
         <v>7</v>
       </c>
       <c r="F9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H9" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J9" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K9" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B10" t="s">
         <v>12</v>
@@ -1381,27 +1381,27 @@
         <v>7</v>
       </c>
       <c r="F10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="G10" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H10" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B11" t="s">
         <v>12</v>
@@ -1416,27 +1416,27 @@
         <v>7</v>
       </c>
       <c r="F11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G11" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H11" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="J11" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="K11" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B12" t="s">
         <v>18</v>
@@ -1451,27 +1451,27 @@
         <v>7</v>
       </c>
       <c r="F12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G12" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H12" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B13" t="s">
         <v>18</v>
@@ -1486,27 +1486,27 @@
         <v>7</v>
       </c>
       <c r="F13" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="G13" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H13" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I13" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K13" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B14" t="s">
         <v>19</v>
@@ -1521,27 +1521,27 @@
         <v>7</v>
       </c>
       <c r="F14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G14" t="s">
+        <v>98</v>
+      </c>
+      <c r="H14" t="s">
+        <v>99</v>
+      </c>
+      <c r="I14" t="s">
         <v>101</v>
       </c>
-      <c r="H14" t="s">
-        <v>102</v>
-      </c>
-      <c r="I14" t="s">
-        <v>104</v>
-      </c>
       <c r="J14" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K14" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
         <v>19</v>
@@ -1556,27 +1556,27 @@
         <v>7</v>
       </c>
       <c r="F15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G15" t="s">
+        <v>98</v>
+      </c>
+      <c r="H15" t="s">
+        <v>99</v>
+      </c>
+      <c r="I15" t="s">
         <v>101</v>
       </c>
-      <c r="H15" t="s">
-        <v>102</v>
-      </c>
-      <c r="I15" t="s">
-        <v>104</v>
-      </c>
       <c r="J15" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K15" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
         <v>20</v>
@@ -1591,27 +1591,27 @@
         <v>7</v>
       </c>
       <c r="F16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H16" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I16" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J16" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K16" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="B17" t="s">
         <v>20</v>
@@ -1626,27 +1626,27 @@
         <v>7</v>
       </c>
       <c r="F17" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G17" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H17" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K17" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B18" t="s">
         <v>20</v>
@@ -1661,27 +1661,27 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G18" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H18" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J18" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K18" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B19" t="s">
         <v>20</v>
@@ -1696,27 +1696,27 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H19" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I19" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J19" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B20" t="s">
         <v>20</v>
@@ -1731,27 +1731,27 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H20" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J20" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K20" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B21" t="s">
         <v>20</v>
@@ -1766,27 +1766,27 @@
         <v>7</v>
       </c>
       <c r="F21" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G21" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H21" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I21" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J21" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K21" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -1801,27 +1801,27 @@
         <v>7</v>
       </c>
       <c r="F22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G22" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H22" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I22" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J22" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K22" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1836,27 +1836,27 @@
         <v>7</v>
       </c>
       <c r="F23" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G23" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H23" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I23" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J23" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K23" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1871,27 +1871,27 @@
         <v>7</v>
       </c>
       <c r="F24" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G24" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H24" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J24" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K24" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -1906,27 +1906,27 @@
         <v>7</v>
       </c>
       <c r="F25" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G25" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I25" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J25" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K25" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -1941,27 +1941,27 @@
         <v>7</v>
       </c>
       <c r="F26" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G26" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H26" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I26" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J26" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K26" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B27" t="s">
         <v>20</v>
@@ -1976,27 +1976,27 @@
         <v>7</v>
       </c>
       <c r="F27" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G27" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H27" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I27" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J27" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K27" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B28" t="s">
         <v>20</v>
@@ -2011,27 +2011,27 @@
         <v>7</v>
       </c>
       <c r="F28" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G28" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H28" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I28" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J28" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K28" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B29" t="s">
         <v>20</v>
@@ -2046,27 +2046,27 @@
         <v>7</v>
       </c>
       <c r="F29" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G29" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I29" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J29" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K29" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
@@ -2081,27 +2081,27 @@
         <v>7</v>
       </c>
       <c r="F30" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G30" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H30" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J30" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B31" t="s">
         <v>20</v>
@@ -2116,27 +2116,27 @@
         <v>7</v>
       </c>
       <c r="F31" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G31" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H31" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I31" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J31" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K31" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B32" t="s">
         <v>20</v>
@@ -2151,27 +2151,27 @@
         <v>7</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G32" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I32" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K32" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
         <v>20</v>
@@ -2186,27 +2186,27 @@
         <v>7</v>
       </c>
       <c r="F33" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G33" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H33" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I33" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J33" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B34" t="s">
         <v>20</v>
@@ -2221,27 +2221,27 @@
         <v>7</v>
       </c>
       <c r="F34" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G34" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H34" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J34" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K34" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B35" t="s">
         <v>20</v>
@@ -2256,27 +2256,27 @@
         <v>7</v>
       </c>
       <c r="F35" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G35" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H35" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I35" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J35" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K35" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
         <v>20</v>
@@ -2291,27 +2291,27 @@
         <v>7</v>
       </c>
       <c r="F36" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G36" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I36" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K36" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
@@ -2326,27 +2326,27 @@
         <v>7</v>
       </c>
       <c r="F37" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G37" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H37" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I37" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J37" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K37" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -2361,27 +2361,27 @@
         <v>7</v>
       </c>
       <c r="F38" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G38" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H38" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I38" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J38" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K38" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -2396,27 +2396,27 @@
         <v>7</v>
       </c>
       <c r="F39" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G39" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H39" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I39" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J39" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K39" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -2431,27 +2431,27 @@
         <v>7</v>
       </c>
       <c r="F40" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G40" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H40" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I40" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K40" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -2466,27 +2466,27 @@
         <v>7</v>
       </c>
       <c r="F41" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G41" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H41" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I41" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J41" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K41" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B42" t="s">
         <v>20</v>
@@ -2501,27 +2501,27 @@
         <v>7</v>
       </c>
       <c r="F42" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G42" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H42" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I42" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J42" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B43" t="s">
         <v>40</v>
@@ -2536,27 +2536,27 @@
         <v>7</v>
       </c>
       <c r="F43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G43" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J43" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K43" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B44" t="s">
         <v>41</v>
@@ -2571,27 +2571,27 @@
         <v>7</v>
       </c>
       <c r="F44" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G44" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J44" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K44" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="B45" t="s">
         <v>41</v>
@@ -2606,27 +2606,27 @@
         <v>7</v>
       </c>
       <c r="F45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J45" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K45" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
@@ -2641,27 +2641,27 @@
         <v>7</v>
       </c>
       <c r="F46" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G46" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J46" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K46" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
@@ -2676,27 +2676,27 @@
         <v>7</v>
       </c>
       <c r="F47" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G47" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J47" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K47" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
@@ -2711,27 +2711,27 @@
         <v>7</v>
       </c>
       <c r="F48" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G48" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J48" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K48" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -2746,27 +2746,27 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G49" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H49" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I49" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J49" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K49" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B50" t="s">
         <v>44</v>
@@ -2781,27 +2781,27 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G50" t="s">
+        <v>98</v>
+      </c>
+      <c r="H50" t="s">
+        <v>99</v>
+      </c>
+      <c r="I50" t="s">
         <v>101</v>
       </c>
-      <c r="H50" t="s">
-        <v>102</v>
-      </c>
-      <c r="I50" t="s">
-        <v>104</v>
-      </c>
       <c r="J50" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K50" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
         <v>44</v>
@@ -2816,27 +2816,27 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G51" t="s">
+        <v>98</v>
+      </c>
+      <c r="H51" t="s">
+        <v>99</v>
+      </c>
+      <c r="I51" t="s">
         <v>101</v>
       </c>
-      <c r="H51" t="s">
-        <v>102</v>
-      </c>
-      <c r="I51" t="s">
-        <v>104</v>
-      </c>
       <c r="J51" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K51" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B52" t="s">
         <v>45</v>
@@ -2851,19 +2851,19 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="G52" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J52" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K52">
         <v>2</v>
@@ -2871,7 +2871,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B53" t="s">
         <v>46</v>
@@ -2886,27 +2886,27 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="G53" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J53" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K53" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B54" t="s">
         <v>47</v>
@@ -2921,27 +2921,27 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G54" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J54" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K54" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B55" t="s">
         <v>47</v>
@@ -2956,27 +2956,27 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="G55" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J55" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K55" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B56" t="s">
         <v>47</v>
@@ -2991,27 +2991,27 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="G56" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H56" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I56" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J56" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K56" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B57" t="s">
         <v>47</v>
@@ -3026,27 +3026,27 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G57" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H57" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="J57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K57" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="B58" t="s">
         <v>47</v>
@@ -3061,27 +3061,27 @@
         <v>7</v>
       </c>
       <c r="F58" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G58" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J58" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K58" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="B59" t="s">
         <v>48</v>
@@ -3096,27 +3096,27 @@
         <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G59" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H59" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J59" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K59" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B60" t="s">
         <v>48</v>
@@ -3131,27 +3131,27 @@
         <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G60" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H60" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I60" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J60" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K60" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B61" t="s">
         <v>48</v>
@@ -3166,27 +3166,27 @@
         <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="G61" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H61" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="J61" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="K61" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="B62" t="s">
         <v>49</v>
@@ -3201,27 +3201,27 @@
         <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G62" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H62" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I62" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J62" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K62" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
         <v>49</v>
@@ -3236,27 +3236,27 @@
         <v>7</v>
       </c>
       <c r="F63" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G63" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J63" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K63" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B64" t="s">
         <v>49</v>
@@ -3271,27 +3271,27 @@
         <v>7</v>
       </c>
       <c r="F64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G64" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H64" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I64" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J64" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K64" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
         <v>49</v>
@@ -3306,27 +3306,27 @@
         <v>7</v>
       </c>
       <c r="F65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G65" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H65" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I65" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J65" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K65" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B66" t="s">
         <v>49</v>
@@ -3341,27 +3341,27 @@
         <v>7</v>
       </c>
       <c r="F66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G66" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H66" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I66" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J66" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K66" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="B67" t="s">
         <v>49</v>
@@ -3376,27 +3376,27 @@
         <v>7</v>
       </c>
       <c r="F67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G67" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H67" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I67" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J67" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K67" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="B68" t="s">
         <v>49</v>
@@ -3411,27 +3411,27 @@
         <v>7</v>
       </c>
       <c r="F68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G68" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H68" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I68" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J68" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K68" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="B69" t="s">
         <v>49</v>
@@ -3446,27 +3446,27 @@
         <v>7</v>
       </c>
       <c r="F69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G69" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H69" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I69" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="J69" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="K69" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="B70" t="s">
         <v>50</v>
@@ -3481,27 +3481,27 @@
         <v>7</v>
       </c>
       <c r="F70" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G70" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H70" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I70" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J70" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K70" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B71" t="s">
         <v>50</v>
@@ -3516,27 +3516,27 @@
         <v>7</v>
       </c>
       <c r="F71" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G71" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H71" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I71" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J71" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K71" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="B72" t="s">
         <v>50</v>
@@ -3551,27 +3551,27 @@
         <v>7</v>
       </c>
       <c r="F72" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G72" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H72" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I72" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J72" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K72" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B73" t="s">
         <v>50</v>
@@ -3586,27 +3586,27 @@
         <v>7</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G73" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H73" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="I73" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="J73" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="K73" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="B74" t="s">
         <v>51</v>
@@ -3621,27 +3621,27 @@
         <v>7</v>
       </c>
       <c r="F74" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H74" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I74" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J74" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K74" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="B75" t="s">
         <v>51</v>
@@ -3656,27 +3656,27 @@
         <v>7</v>
       </c>
       <c r="F75" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G75" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H75" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I75" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J75" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K75" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="B76" t="s">
         <v>51</v>
@@ -3691,27 +3691,27 @@
         <v>7</v>
       </c>
       <c r="F76" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G76" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H76" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="I76" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="J76" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K76" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="B77" t="s">
         <v>51</v>
@@ -3726,27 +3726,27 @@
         <v>7</v>
       </c>
       <c r="F77" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H77" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I77" s="5" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J77" s="5" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K77" s="5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B78" t="s">
         <v>51</v>
@@ -3761,27 +3761,27 @@
         <v>7</v>
       </c>
       <c r="F78" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G78" t="s">
+        <v>98</v>
+      </c>
+      <c r="H78" t="s">
+        <v>99</v>
+      </c>
+      <c r="I78" t="s">
         <v>101</v>
       </c>
-      <c r="H78" t="s">
-        <v>102</v>
-      </c>
-      <c r="I78" t="s">
-        <v>104</v>
-      </c>
       <c r="J78" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K78" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="B79" t="s">
         <v>51</v>
@@ -3796,27 +3796,27 @@
         <v>7</v>
       </c>
       <c r="F79" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G79" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H79" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I79" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J79" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K79" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="B80" t="s">
         <v>51</v>
@@ -3831,27 +3831,27 @@
         <v>7</v>
       </c>
       <c r="F80" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G80" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H80" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I80" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="J80" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K80" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B81" t="s">
         <v>51</v>
@@ -3866,27 +3866,27 @@
         <v>7</v>
       </c>
       <c r="F81" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G81" t="s">
+        <v>98</v>
+      </c>
+      <c r="H81" t="s">
+        <v>99</v>
+      </c>
+      <c r="I81" t="s">
         <v>101</v>
       </c>
-      <c r="H81" t="s">
-        <v>102</v>
-      </c>
-      <c r="I81" t="s">
-        <v>104</v>
-      </c>
       <c r="J81" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K81" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="B82" t="s">
         <v>51</v>
@@ -3901,27 +3901,27 @@
         <v>7</v>
       </c>
       <c r="F82" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G82" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H82" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I82" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="J82" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K82" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B83" t="s">
         <v>51</v>
@@ -3936,27 +3936,27 @@
         <v>7</v>
       </c>
       <c r="F83" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G83" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H83" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="I83" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="J83" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="K83" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B84" t="s">
         <v>51</v>
@@ -3971,27 +3971,27 @@
         <v>7</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G84" t="s">
+        <v>98</v>
+      </c>
+      <c r="H84" t="s">
+        <v>99</v>
+      </c>
+      <c r="I84" t="s">
         <v>101</v>
       </c>
-      <c r="H84" t="s">
-        <v>102</v>
-      </c>
-      <c r="I84" t="s">
-        <v>104</v>
-      </c>
       <c r="J84" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="K84" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="B85" t="s">
         <v>51</v>
@@ -4006,27 +4006,27 @@
         <v>7</v>
       </c>
       <c r="F85" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G85" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H85" t="s">
+        <v>99</v>
+      </c>
+      <c r="I85" t="s">
         <v>102</v>
       </c>
-      <c r="I85" t="s">
-        <v>105</v>
-      </c>
       <c r="J85" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="K85" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B86" t="s">
         <v>51</v>
@@ -4041,22 +4041,22 @@
         <v>7</v>
       </c>
       <c r="F86" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G86" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="H86" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I86" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="J86" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="K86" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
